--- a/auto/new_data/5_經濟數據_united-states.xlsx
+++ b/auto/new_data/5_經濟數據_united-states.xlsx
@@ -488,12 +488,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>104</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>104</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -518,12 +518,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>5862</t>
+          <t>5844</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5860</t>
+          <t>5854</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -1130,12 +1130,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>0.1</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>1.1</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -1147,7 +1147,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/2</t>
         </is>
       </c>
     </row>
@@ -1164,12 +1164,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>1428</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>1470</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>1406</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -1181,7 +1181,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/2</t>
         </is>
       </c>
     </row>
@@ -2116,12 +2116,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>241</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>260</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -2150,12 +2150,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>1861</t>
+          <t>1867</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>1819</t>
+          <t>1858</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/2</t>
         </is>
       </c>
     </row>
@@ -3294,12 +3294,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>236</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>232</t>
         </is>
       </c>
       <c r="E85" t="inlineStr"/>
@@ -3634,12 +3634,12 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
           <t>148</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>149</t>
         </is>
       </c>
       <c r="E95" t="inlineStr"/>
@@ -3651,7 +3651,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/2</t>
         </is>
       </c>
     </row>
@@ -3673,7 +3673,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>141</t>
         </is>
       </c>
       <c r="E96" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/2</t>
         </is>
       </c>
     </row>
@@ -4013,7 +4013,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>-0.9</t>
         </is>
       </c>
       <c r="E106" t="inlineStr"/>
@@ -4025,7 +4025,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/2</t>
         </is>
       </c>
     </row>
@@ -4042,12 +4042,12 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
+          <t>-2.1</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
           <t>-0.7</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>1.2</t>
         </is>
       </c>
       <c r="E107" t="inlineStr"/>
@@ -4059,7 +4059,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/2</t>
         </is>
       </c>
     </row>
@@ -4076,12 +4076,12 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>-0.3</t>
+          <t>-0.4</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>-0.2</t>
         </is>
       </c>
       <c r="E108" t="inlineStr"/>
@@ -4093,7 +4093,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/2</t>
         </is>
       </c>
     </row>
@@ -4110,12 +4110,12 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
+          <t>-0.1</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
           <t>0.8</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>1.7</t>
         </is>
       </c>
       <c r="E109" t="inlineStr"/>
@@ -4127,7 +4127,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/2</t>
         </is>
       </c>
     </row>
@@ -4319,7 +4319,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>133</t>
         </is>
       </c>
       <c r="E115" t="inlineStr"/>
@@ -4331,7 +4331,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/2</t>
         </is>
       </c>
     </row>
@@ -4484,7 +4484,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -4501,7 +4501,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/2</t>
         </is>
       </c>
     </row>
@@ -4654,12 +4654,12 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>4.08</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>4.16</t>
         </is>
       </c>
       <c r="E125" t="inlineStr"/>
@@ -4671,7 +4671,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Jul/2</t>
+          <t>Sep/2</t>
         </is>
       </c>
     </row>
@@ -4773,7 +4773,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/2</t>
         </is>
       </c>
     </row>
@@ -4994,12 +4994,12 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>23332</t>
+          <t>23403</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>23364</t>
+          <t>23333</t>
         </is>
       </c>
       <c r="E135" t="inlineStr"/>
@@ -5028,12 +5028,12 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
+          <t>7039284</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
           <t>7046840</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>7046925</t>
         </is>
       </c>
       <c r="E136" t="inlineStr"/>
@@ -5232,12 +5232,12 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>4.82</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>4.83</t>
+          <t>4.85</t>
         </is>
       </c>
       <c r="E142" t="inlineStr"/>
@@ -5266,12 +5266,12 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
+          <t>19200</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
           <t>55900</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>11600</t>
         </is>
       </c>
       <c r="E143" t="inlineStr"/>
@@ -5283,7 +5283,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Jul/2</t>
+          <t>Aug/2</t>
         </is>
       </c>
     </row>
@@ -5572,12 +5572,12 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>156500</t>
+          <t>79200</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>92000</t>
+          <t>159100</t>
         </is>
       </c>
       <c r="E152" t="inlineStr"/>
@@ -5589,7 +5589,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Jul/2</t>
+          <t>Aug/2</t>
         </is>
       </c>
     </row>
@@ -5640,12 +5640,12 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>135400</t>
+          <t>111400</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>80500</t>
+          <t>137900</t>
         </is>
       </c>
       <c r="E154" t="inlineStr"/>
@@ -5657,7 +5657,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Jul/2</t>
+          <t>Aug/2</t>
         </is>
       </c>
     </row>
@@ -5840,12 +5840,12 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
+          <t>13500</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
           <t>13400</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>13300</t>
         </is>
       </c>
       <c r="E160" t="inlineStr"/>
@@ -6142,12 +6142,12 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>-380100</t>
+          <t>64000</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>-244000</t>
+          <t>-380000</t>
         </is>
       </c>
       <c r="E169" t="inlineStr"/>
@@ -6159,7 +6159,7 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/2</t>
         </is>
       </c>
     </row>
@@ -6674,12 +6674,12 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-0.6</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>-0.7</t>
+          <t>-0.2</t>
         </is>
       </c>
       <c r="E185" t="inlineStr"/>
@@ -6691,7 +6691,7 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/2</t>
         </is>
       </c>
     </row>
@@ -6708,12 +6708,12 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>-0.3</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>-0.9</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="E186" t="inlineStr"/>
@@ -6725,7 +6725,7 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/2</t>
         </is>
       </c>
     </row>
@@ -6742,12 +6742,12 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>-0.5</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>-0.7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E187" t="inlineStr"/>
@@ -6759,7 +6759,7 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/2</t>
         </is>
       </c>
     </row>
@@ -6776,12 +6776,12 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>77.5</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>77.4</t>
+          <t>77.8</t>
         </is>
       </c>
       <c r="E188" t="inlineStr"/>
@@ -6793,7 +6793,7 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/2</t>
         </is>
       </c>
     </row>
@@ -7014,7 +7014,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -7031,7 +7031,7 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Jul/2</t>
+          <t>Aug/2</t>
         </is>
       </c>
     </row>
@@ -7286,12 +7286,12 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
+          <t>-11.9</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
           <t>11.5</t>
-        </is>
-      </c>
-      <c r="D203" t="inlineStr">
-        <is>
-          <t>-4.7</t>
         </is>
       </c>
       <c r="E203" t="inlineStr"/>
@@ -7303,7 +7303,7 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/2</t>
         </is>
       </c>
     </row>
@@ -7320,12 +7320,12 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
+          <t>10.3</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
           <t>1.7</t>
-        </is>
-      </c>
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>-7</t>
         </is>
       </c>
       <c r="E204" t="inlineStr"/>
@@ -7337,7 +7337,7 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/2</t>
         </is>
       </c>
     </row>
@@ -8544,12 +8544,12 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>0.9</t>
+          <t>-0.4</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>-0.7</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="E240" t="inlineStr"/>
@@ -8561,7 +8561,7 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/2</t>
         </is>
       </c>
     </row>
@@ -8612,12 +8612,12 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
           <t>-5.7</t>
-        </is>
-      </c>
-      <c r="D242" t="inlineStr">
-        <is>
-          <t>-6.7</t>
         </is>
       </c>
       <c r="E242" t="inlineStr"/>
@@ -8629,7 +8629,7 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/2</t>
         </is>
       </c>
     </row>
@@ -8646,12 +8646,12 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
+          <t>-10.2</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
           <t>9.4</t>
-        </is>
-      </c>
-      <c r="D243" t="inlineStr">
-        <is>
-          <t>-7.9</t>
         </is>
       </c>
       <c r="E243" t="inlineStr"/>
@@ -8663,7 +8663,7 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/2</t>
         </is>
       </c>
     </row>
@@ -8680,12 +8680,12 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
           <t>23.2</t>
-        </is>
-      </c>
-      <c r="D244" t="inlineStr">
-        <is>
-          <t>23.4</t>
         </is>
       </c>
       <c r="E244" t="inlineStr"/>
@@ -8697,7 +8697,7 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/2</t>
         </is>
       </c>
     </row>
@@ -8714,12 +8714,12 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
+          <t>-2.7</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
           <t>17.9</t>
-        </is>
-      </c>
-      <c r="D245" t="inlineStr">
-        <is>
-          <t>0.3</t>
         </is>
       </c>
       <c r="E245" t="inlineStr"/>
@@ -8731,7 +8731,7 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/2</t>
         </is>
       </c>
     </row>
@@ -8748,12 +8748,12 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
+          <t>36.7</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
           <t>15.8</t>
-        </is>
-      </c>
-      <c r="D246" t="inlineStr">
-        <is>
-          <t>15.4</t>
         </is>
       </c>
       <c r="E246" t="inlineStr"/>
@@ -8765,7 +8765,7 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/2</t>
         </is>
       </c>
     </row>
@@ -8782,12 +8782,12 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
+          <t>23.5</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
           <t>25</t>
-        </is>
-      </c>
-      <c r="D247" t="inlineStr">
-        <is>
-          <t>12</t>
         </is>
       </c>
       <c r="E247" t="inlineStr"/>
@@ -8799,7 +8799,7 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/2</t>
         </is>
       </c>
     </row>
@@ -8816,12 +8816,12 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
+          <t>-2.2</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
           <t>10.7</t>
-        </is>
-      </c>
-      <c r="D248" t="inlineStr">
-        <is>
-          <t>-5.7</t>
         </is>
       </c>
       <c r="E248" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/2</t>
         </is>
       </c>
     </row>
@@ -8850,12 +8850,12 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
+          <t>14.2</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
           <t>-1.5</t>
-        </is>
-      </c>
-      <c r="D249" t="inlineStr">
-        <is>
-          <t>14.6</t>
         </is>
       </c>
       <c r="E249" t="inlineStr"/>
@@ -8867,7 +8867,7 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/2</t>
         </is>
       </c>
     </row>
@@ -8884,12 +8884,12 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
+          <t>29.7</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
           <t>34</t>
-        </is>
-      </c>
-      <c r="D250" t="inlineStr">
-        <is>
-          <t>24</t>
         </is>
       </c>
       <c r="E250" t="inlineStr"/>
@@ -8901,7 +8901,7 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/2</t>
         </is>
       </c>
     </row>
@@ -8918,12 +8918,12 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="E251" t="inlineStr"/>
@@ -9326,12 +9326,12 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>-2.2</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>-1.1</t>
+          <t>-0.9</t>
         </is>
       </c>
       <c r="E263" t="inlineStr"/>
@@ -9343,7 +9343,7 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/2</t>
         </is>
       </c>
     </row>
@@ -9428,12 +9428,12 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
           <t>0.1</t>
-        </is>
-      </c>
-      <c r="D266" t="inlineStr">
-        <is>
-          <t>1.1</t>
         </is>
       </c>
       <c r="E266" t="inlineStr"/>
@@ -9445,7 +9445,7 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/2</t>
         </is>
       </c>
     </row>
@@ -9462,12 +9462,12 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="E267" t="inlineStr"/>
@@ -9479,7 +9479,7 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/2</t>
         </is>
       </c>
     </row>
@@ -9496,12 +9496,12 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="E268" t="inlineStr"/>
@@ -9513,7 +9513,7 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/2</t>
         </is>
       </c>
     </row>
@@ -9836,12 +9836,12 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
+          <t>5.6</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
           <t>5.4</t>
-        </is>
-      </c>
-      <c r="D278" t="inlineStr">
-        <is>
-          <t>5.3</t>
         </is>
       </c>
       <c r="E278" t="inlineStr"/>
@@ -10142,12 +10142,12 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="E287" t="inlineStr"/>
@@ -10159,7 +10159,7 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/2</t>
         </is>
       </c>
     </row>
@@ -10244,12 +10244,12 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
+          <t>2262</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
           <t>2123</t>
-        </is>
-      </c>
-      <c r="D290" t="inlineStr">
-        <is>
-          <t>2339</t>
         </is>
       </c>
       <c r="E290" t="inlineStr"/>
@@ -10261,7 +10261,7 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>Jul/2</t>
+          <t>Aug/2</t>
         </is>
       </c>
     </row>
@@ -10342,12 +10342,12 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
+          <t>1428</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
           <t>1470</t>
-        </is>
-      </c>
-      <c r="D293" t="inlineStr">
-        <is>
-          <t>1406</t>
         </is>
       </c>
       <c r="E293" t="inlineStr"/>
@@ -10359,7 +10359,7 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/2</t>
         </is>
       </c>
     </row>
@@ -10376,12 +10376,12 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>1356</t>
+          <t>1354</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>1237</t>
+          <t>1361</t>
         </is>
       </c>
       <c r="E294" t="inlineStr"/>
@@ -10393,7 +10393,7 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/2</t>
         </is>
       </c>
     </row>
@@ -10580,12 +10580,12 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
           <t>41</t>
-        </is>
-      </c>
-      <c r="D300" t="inlineStr">
-        <is>
-          <t>39</t>
         </is>
       </c>
       <c r="E300" t="inlineStr"/>
@@ -10597,7 +10597,7 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/2</t>
         </is>
       </c>
     </row>
@@ -10614,12 +10614,12 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
           <t>6.36</t>
-        </is>
-      </c>
-      <c r="D301" t="inlineStr">
-        <is>
-          <t>6.14</t>
         </is>
       </c>
       <c r="E301" t="inlineStr"/>
@@ -10648,12 +10648,12 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
+          <t>-17</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
           <t>-5.1</t>
-        </is>
-      </c>
-      <c r="D302" t="inlineStr">
-        <is>
-          <t>-1.3</t>
         </is>
       </c>
       <c r="E302" t="inlineStr"/>
@@ -10682,12 +10682,12 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
           <t>5.41</t>
-        </is>
-      </c>
-      <c r="D303" t="inlineStr">
-        <is>
-          <t>5.25</t>
         </is>
       </c>
       <c r="E303" t="inlineStr"/>
@@ -10716,12 +10716,12 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
           <t>6.32</t>
-        </is>
-      </c>
-      <c r="D304" t="inlineStr">
-        <is>
-          <t>6.12</t>
         </is>
       </c>
       <c r="E304" t="inlineStr"/>
@@ -10818,12 +10818,12 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
+          <t>-2.9</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
           <t>4.6</t>
-        </is>
-      </c>
-      <c r="D307" t="inlineStr">
-        <is>
-          <t>-3.3</t>
         </is>
       </c>
       <c r="E307" t="inlineStr"/>
@@ -10835,7 +10835,7 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/2</t>
         </is>
       </c>
     </row>
@@ -11022,12 +11022,12 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>9.6</t>
+          <t>-0.5</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>-6.9</t>
+          <t>7.8</t>
         </is>
       </c>
       <c r="E313" t="inlineStr"/>
@@ -11039,7 +11039,7 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/2</t>
         </is>
       </c>
     </row>
@@ -11056,12 +11056,12 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>317</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>332</t>
         </is>
       </c>
       <c r="E314" t="inlineStr"/>
@@ -11073,7 +11073,7 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/2</t>
         </is>
       </c>
     </row>
@@ -11090,24 +11090,20 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>992</t>
-        </is>
-      </c>
-      <c r="D315" t="inlineStr">
-        <is>
-          <t>857</t>
-        </is>
-      </c>
+          <t>1027</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr"/>
       <c r="E315" t="inlineStr"/>
       <c r="F315" t="inlineStr"/>
       <c r="G315" t="inlineStr">
         <is>
-          <t>Thousand units</t>
+          <t>one thousand Thousand units</t>
         </is>
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/2</t>
         </is>
       </c>
     </row>
@@ -11124,12 +11120,12 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
           <t>278</t>
-        </is>
-      </c>
-      <c r="D316" t="inlineStr">
-        <is>
-          <t>292</t>
         </is>
       </c>
       <c r="E316" t="inlineStr"/>
@@ -11158,12 +11154,12 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
+          <t>735</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
           <t>997</t>
-        </is>
-      </c>
-      <c r="D317" t="inlineStr">
-        <is>
-          <t>1100</t>
         </is>
       </c>
       <c r="E317" t="inlineStr"/>
@@ -11192,7 +11188,7 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>138</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
@@ -11562,12 +11558,12 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
+          <t>-2.19</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
           <t>5.81</t>
-        </is>
-      </c>
-      <c r="D329" t="inlineStr">
-        <is>
-          <t>3.89</t>
         </is>
       </c>
       <c r="E329" t="inlineStr"/>
@@ -11592,12 +11588,12 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
+          <t>-2201</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
           <t>-6304</t>
-        </is>
-      </c>
-      <c r="D330" t="inlineStr">
-        <is>
-          <t>1119</t>
         </is>
       </c>
       <c r="E330" t="inlineStr"/>
@@ -11626,12 +11622,12 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
           <t>82</t>
-        </is>
-      </c>
-      <c r="D331" t="inlineStr">
-        <is>
-          <t>55</t>
         </is>
       </c>
       <c r="E331" t="inlineStr"/>
@@ -11660,12 +11656,12 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
+          <t>-1.58</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
           <t>10.9</t>
-        </is>
-      </c>
-      <c r="D332" t="inlineStr">
-        <is>
-          <t>-1.46</t>
         </is>
       </c>
       <c r="E332" t="inlineStr"/>
@@ -11690,12 +11686,12 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
+          <t>482</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
           <t>481</t>
-        </is>
-      </c>
-      <c r="D333" t="inlineStr">
-        <is>
-          <t>479</t>
         </is>
       </c>
       <c r="E333" t="inlineStr"/>
@@ -11720,12 +11716,12 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
+          <t>383882</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
           <t>382930</t>
-        </is>
-      </c>
-      <c r="D334" t="inlineStr">
-        <is>
-          <t>382553</t>
         </is>
       </c>
       <c r="E334" t="inlineStr"/>
@@ -11754,12 +11750,12 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
+          <t>585</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
           <t>586</t>
-        </is>
-      </c>
-      <c r="D335" t="inlineStr">
-        <is>
-          <t>585</t>
         </is>
       </c>
       <c r="E335" t="inlineStr"/>
@@ -11844,12 +11840,12 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
           <t>1.36</t>
-        </is>
-      </c>
-      <c r="D338" t="inlineStr">
-        <is>
-          <t>0.7</t>
         </is>
       </c>
       <c r="E338" t="inlineStr"/>
@@ -11874,12 +11870,12 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
+          <t>-2.67</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
           <t>-2.59</t>
-        </is>
-      </c>
-      <c r="D339" t="inlineStr">
-        <is>
-          <t>-2.7</t>
         </is>
       </c>
       <c r="E339" t="inlineStr"/>
@@ -11904,12 +11900,12 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
+          <t>-5.93</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
           <t>-0.56</t>
-        </is>
-      </c>
-      <c r="D340" t="inlineStr">
-        <is>
-          <t>0.9</t>
         </is>
       </c>
       <c r="E340" t="inlineStr"/>
@@ -11994,12 +11990,12 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
+          <t>-1039</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
           <t>-305</t>
-        </is>
-      </c>
-      <c r="D343" t="inlineStr">
-        <is>
-          <t>191</t>
         </is>
       </c>
       <c r="E343" t="inlineStr"/>
@@ -12028,12 +12024,12 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
           <t>1247</t>
-        </is>
-      </c>
-      <c r="D344" t="inlineStr">
-        <is>
-          <t>840</t>
         </is>
       </c>
       <c r="E344" t="inlineStr"/>
@@ -12062,12 +12058,12 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
+          <t>-234</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
           <t>194</t>
-        </is>
-      </c>
-      <c r="D345" t="inlineStr">
-        <is>
-          <t>-104</t>
         </is>
       </c>
       <c r="E345" t="inlineStr"/>
@@ -12096,12 +12092,12 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
+          <t>-3534</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
           <t>-3124</t>
-        </is>
-      </c>
-      <c r="D346" t="inlineStr">
-        <is>
-          <t>-1284</t>
         </is>
       </c>
       <c r="E346" t="inlineStr"/>
@@ -12130,12 +12126,12 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
+          <t>-941</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
           <t>627</t>
-        </is>
-      </c>
-      <c r="D347" t="inlineStr">
-        <is>
-          <t>-235</t>
         </is>
       </c>
       <c r="E347" t="inlineStr"/>
@@ -12164,12 +12160,12 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
+          <t>-343</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
           <t>497</t>
-        </is>
-      </c>
-      <c r="D348" t="inlineStr">
-        <is>
-          <t>-277</t>
         </is>
       </c>
       <c r="E348" t="inlineStr"/>
@@ -12198,12 +12194,12 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
           <t>-101</t>
-        </is>
-      </c>
-      <c r="D349" t="inlineStr">
-        <is>
-          <t>-662</t>
         </is>
       </c>
       <c r="E349" t="inlineStr"/>

--- a/auto/new_data/5_經濟數據_united-states.xlsx
+++ b/auto/new_data/5_經濟數據_united-states.xlsx
@@ -518,12 +518,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>5844</t>
+          <t>5846</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5854</t>
+          <t>5851</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -4892,12 +4892,12 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
+          <t>5588400</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
           <t>5670200</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>5653900</t>
         </is>
       </c>
       <c r="E132" t="inlineStr"/>
@@ -4909,7 +4909,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/2</t>
         </is>
       </c>
     </row>
@@ -4926,12 +4926,12 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>18118</t>
+          <t>18151</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>18054</t>
+          <t>18094</t>
         </is>
       </c>
       <c r="E133" t="inlineStr"/>
@@ -4943,7 +4943,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/2</t>
         </is>
       </c>
     </row>
@@ -4960,12 +4960,12 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>21175</t>
+          <t>21221</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>21059</t>
+          <t>21141</t>
         </is>
       </c>
       <c r="E134" t="inlineStr"/>
@@ -4977,7 +4977,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/2</t>
         </is>
       </c>
     </row>
@@ -5232,12 +5232,12 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
           <t>4.84</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>4.85</t>
         </is>
       </c>
       <c r="E142" t="inlineStr"/>
@@ -7354,12 +7354,12 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
+          <t>-14</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
           <t>-21</t>
-        </is>
-      </c>
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>-19</t>
         </is>
       </c>
       <c r="E205" t="inlineStr"/>
@@ -7371,7 +7371,7 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/2</t>
         </is>
       </c>
     </row>
@@ -7524,7 +7524,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>99.7</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -7541,7 +7541,7 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/2</t>
         </is>
       </c>
     </row>
@@ -8952,12 +8952,12 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
+          <t>-8</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
           <t>-18</t>
-        </is>
-      </c>
-      <c r="D252" t="inlineStr">
-        <is>
-          <t>-15</t>
         </is>
       </c>
       <c r="E252" t="inlineStr"/>
@@ -8969,7 +8969,7 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/2</t>
         </is>
       </c>
     </row>
@@ -8986,12 +8986,12 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
           <t>-1</t>
-        </is>
-      </c>
-      <c r="D253" t="inlineStr">
-        <is>
-          <t>-11</t>
         </is>
       </c>
       <c r="E253" t="inlineStr"/>
@@ -9003,7 +9003,7 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/2</t>
         </is>
       </c>
     </row>
@@ -9836,12 +9836,12 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
           <t>5.6</t>
-        </is>
-      </c>
-      <c r="D278" t="inlineStr">
-        <is>
-          <t>5.4</t>
         </is>
       </c>
       <c r="E278" t="inlineStr"/>
@@ -10784,12 +10784,12 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
+          <t>403</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
           <t>396</t>
-        </is>
-      </c>
-      <c r="D306" t="inlineStr">
-        <is>
-          <t>393</t>
         </is>
       </c>
       <c r="E306" t="inlineStr"/>
@@ -10801,7 +10801,7 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/2</t>
         </is>
       </c>
     </row>
@@ -11656,12 +11656,12 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
           <t>-1.58</t>
-        </is>
-      </c>
-      <c r="D332" t="inlineStr">
-        <is>
-          <t>10.9</t>
         </is>
       </c>
       <c r="E332" t="inlineStr"/>
@@ -11840,12 +11840,12 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
+          <t>-0.22</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
           <t>0.41</t>
-        </is>
-      </c>
-      <c r="D338" t="inlineStr">
-        <is>
-          <t>1.36</t>
         </is>
       </c>
       <c r="E338" t="inlineStr"/>
@@ -11870,12 +11870,12 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
+          <t>-1.48</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
           <t>-2.67</t>
-        </is>
-      </c>
-      <c r="D339" t="inlineStr">
-        <is>
-          <t>-2.59</t>
         </is>
       </c>
       <c r="E339" t="inlineStr"/>
@@ -11900,12 +11900,12 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
+          <t>-2.02</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
           <t>-5.93</t>
-        </is>
-      </c>
-      <c r="D340" t="inlineStr">
-        <is>
-          <t>-0.56</t>
         </is>
       </c>
       <c r="E340" t="inlineStr"/>

--- a/auto/new_data/5_經濟數據_united-states.xlsx
+++ b/auto/new_data/5_經濟數據_united-states.xlsx
@@ -501,7 +501,7 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Nov/2</t>
         </is>
       </c>
     </row>
@@ -518,12 +518,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>5846</t>
+          <t>5715</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5851</t>
+          <t>5705</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -535,7 +535,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Nov/2</t>
         </is>
       </c>
     </row>
@@ -552,12 +552,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>2.8</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.6</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -569,7 +569,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Sep/2</t>
         </is>
       </c>
     </row>
@@ -586,12 +586,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>2.7</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.9</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -603,7 +603,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Sep/2</t>
         </is>
       </c>
     </row>
@@ -994,12 +994,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>47.8</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>47.3</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>47.9</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -1011,7 +1011,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/2</t>
         </is>
       </c>
     </row>
@@ -1062,12 +1062,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>55.3</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>55.2</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>55.7</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -1079,7 +1079,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/2</t>
         </is>
       </c>
     </row>
@@ -1096,7 +1096,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>68.9</t>
+          <t>70.5</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1164,7 +1164,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1428</t>
+          <t>1425</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1266,12 +1266,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>2.8</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>1.6</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Sep/2</t>
         </is>
       </c>
     </row>
@@ -1300,12 +1300,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>2.7</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>2.9</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -1317,7 +1317,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Sep/2</t>
         </is>
       </c>
     </row>
@@ -1368,12 +1368,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>23386</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>23224</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>23054</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -1385,7 +1385,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Sep/2</t>
         </is>
       </c>
     </row>
@@ -1436,12 +1436,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>4270</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>4256</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>4231</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -1453,7 +1453,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Sep/2</t>
         </is>
       </c>
     </row>
@@ -1572,12 +1572,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>1.9</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>2.1</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -1589,7 +1589,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Sep/2</t>
         </is>
       </c>
     </row>
@@ -1606,12 +1606,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>3.7</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>2.8</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>1.9</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -1623,7 +1623,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Sep/2</t>
         </is>
       </c>
     </row>
@@ -1640,12 +1640,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -1657,7 +1657,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/2</t>
         </is>
       </c>
     </row>
@@ -2116,12 +2116,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>216</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>228</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -2150,12 +2150,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>1867</t>
+          <t>1862</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>1858</t>
+          <t>1888</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
@@ -2184,12 +2184,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>233</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>159</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -2201,7 +2201,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/2</t>
         </is>
       </c>
     </row>
@@ -2524,12 +2524,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>8095</t>
+          <t>7418</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>8378</t>
+          <t>7939</t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
@@ -2541,7 +2541,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/2</t>
         </is>
       </c>
     </row>
@@ -2558,12 +2558,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>8040</t>
+          <t>7443</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>7711</t>
+          <t>7861</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
@@ -2575,7 +2575,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/2</t>
         </is>
       </c>
     </row>
@@ -2592,12 +2592,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
+          <t>55597</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
           <t>72821</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>75891</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
@@ -2609,7 +2609,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/2</t>
         </is>
       </c>
     </row>
@@ -2626,12 +2626,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>30.27</t>
+          <t>30.33</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>30.16</t>
+          <t>30.25</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
@@ -2639,7 +2639,7 @@
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/2</t>
         </is>
       </c>
     </row>
@@ -2720,12 +2720,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>27.96</t>
+          <t>28.1</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>27.94</t>
+          <t>27.98</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
@@ -2733,7 +2733,7 @@
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/2</t>
         </is>
       </c>
     </row>
@@ -2750,12 +2750,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
           <t>0.9</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>1.2</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
@@ -2767,7 +2767,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Sep/2</t>
         </is>
       </c>
     </row>
@@ -2920,12 +2920,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>1.1</t>
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Sep/2</t>
         </is>
       </c>
     </row>
@@ -2954,12 +2954,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
           <t>0.9</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>1.1</t>
         </is>
       </c>
       <c r="E75" t="inlineStr"/>
@@ -2971,7 +2971,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Sep/2</t>
         </is>
       </c>
     </row>
@@ -2988,12 +2988,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
+          <t>266743</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
           <t>403893</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>6101</t>
         </is>
       </c>
       <c r="E76" t="inlineStr"/>
@@ -3005,7 +3005,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/2</t>
         </is>
       </c>
     </row>
@@ -3022,12 +3022,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>1608</t>
+          <t>1833</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>1713</t>
+          <t>1668</t>
         </is>
       </c>
       <c r="E77" t="inlineStr"/>
@@ -3039,7 +3039,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/2</t>
         </is>
       </c>
     </row>
@@ -3056,12 +3056,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>3084</t>
+          <t>3071</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>3243</t>
+          <t>3178</t>
         </is>
       </c>
       <c r="E78" t="inlineStr"/>
@@ -3073,7 +3073,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/2</t>
         </is>
       </c>
     </row>
@@ -3107,7 +3107,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/2</t>
         </is>
       </c>
     </row>
@@ -3299,7 +3299,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>239</t>
         </is>
       </c>
       <c r="E85" t="inlineStr"/>
@@ -3532,12 +3532,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
           <t>125</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>124</t>
         </is>
       </c>
       <c r="E92" t="inlineStr"/>
@@ -3549,7 +3549,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Sep/2</t>
         </is>
       </c>
     </row>
@@ -3770,12 +3770,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="E99" t="inlineStr"/>
@@ -3787,7 +3787,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/2</t>
         </is>
       </c>
     </row>
@@ -3804,7 +3804,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3821,7 +3821,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/2</t>
         </is>
       </c>
     </row>
@@ -3838,12 +3838,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
+          <t>2.2</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
           <t>2.8</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>3.7</t>
         </is>
       </c>
       <c r="E101" t="inlineStr"/>
@@ -3855,7 +3855,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Sep/2</t>
         </is>
       </c>
     </row>
@@ -4178,7 +4178,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -4212,12 +4212,12 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="E112" t="inlineStr"/>
@@ -4229,7 +4229,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/2</t>
         </is>
       </c>
     </row>
@@ -4246,12 +4246,12 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
           <t>0.1</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>0.2</t>
         </is>
       </c>
       <c r="E113" t="inlineStr"/>
@@ -4263,7 +4263,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/2</t>
         </is>
       </c>
     </row>
@@ -4280,12 +4280,12 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
+          <t>1.5</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
           <t>2.5</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>3.4</t>
         </is>
       </c>
       <c r="E114" t="inlineStr"/>
@@ -4297,7 +4297,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Sep/2</t>
         </is>
       </c>
     </row>
@@ -4535,7 +4535,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/2</t>
         </is>
       </c>
     </row>
@@ -4807,7 +4807,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/2</t>
         </is>
       </c>
     </row>
@@ -4994,12 +4994,12 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
+          <t>23508</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
           <t>23403</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>23333</t>
         </is>
       </c>
       <c r="E135" t="inlineStr"/>
@@ -5028,12 +5028,12 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>7039284</t>
+          <t>7013490</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>7046840</t>
+          <t>7029408</t>
         </is>
       </c>
       <c r="E136" t="inlineStr"/>
@@ -5096,7 +5096,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>2773</t>
+          <t>2781</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/2</t>
         </is>
       </c>
     </row>
@@ -5232,12 +5232,12 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
           <t>4.82</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>4.84</t>
         </is>
       </c>
       <c r="E142" t="inlineStr"/>
@@ -5845,7 +5845,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>13400</t>
+          <t>13500</t>
         </is>
       </c>
       <c r="E160" t="inlineStr"/>
@@ -5874,12 +5874,12 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>-94260</t>
+          <t>-108230</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>-102840</t>
+          <t>-94218</t>
         </is>
       </c>
       <c r="E161" t="inlineStr"/>
@@ -5891,7 +5891,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/2</t>
         </is>
       </c>
     </row>
@@ -5976,12 +5976,12 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>21116</t>
+          <t>21480</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>21230</t>
+          <t>21065</t>
         </is>
       </c>
       <c r="E164" t="inlineStr"/>
@@ -5993,7 +5993,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Jul/2</t>
+          <t>Aug/2</t>
         </is>
       </c>
     </row>
@@ -6142,12 +6142,12 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>64000</t>
+          <t>64263</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>-380000</t>
+          <t>-380080</t>
         </is>
       </c>
       <c r="E169" t="inlineStr"/>
@@ -6176,12 +6176,12 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
+          <t>3966</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
           <t>3917</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>3888</t>
         </is>
       </c>
       <c r="E170" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Sep/2</t>
         </is>
       </c>
     </row>
@@ -6210,12 +6210,12 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
+          <t>527620</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
           <t>306540</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>330377</t>
         </is>
       </c>
       <c r="E171" t="inlineStr"/>
@@ -6227,7 +6227,7 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/2</t>
         </is>
       </c>
     </row>
@@ -6278,12 +6278,12 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
+          <t>463357</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
           <t>686620</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>574119</t>
         </is>
       </c>
       <c r="E173" t="inlineStr"/>
@@ -6295,7 +6295,7 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/2</t>
         </is>
       </c>
     </row>
@@ -6538,12 +6538,12 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
+          <t>47.8</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
           <t>47.3</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>47.9</t>
         </is>
       </c>
       <c r="E181" t="inlineStr"/>
@@ -6555,7 +6555,7 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/2</t>
         </is>
       </c>
     </row>
@@ -6606,12 +6606,12 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
+          <t>55.3</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
           <t>55.2</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>55.7</t>
         </is>
       </c>
       <c r="E183" t="inlineStr"/>
@@ -6623,7 +6623,7 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/2</t>
         </is>
       </c>
     </row>
@@ -6640,12 +6640,12 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
+          <t>54.3</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
           <t>54</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>54.6</t>
         </is>
       </c>
       <c r="E184" t="inlineStr"/>
@@ -6657,7 +6657,7 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/2</t>
         </is>
       </c>
     </row>
@@ -6810,12 +6810,12 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-0.8</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>9.8</t>
+          <t>-0.8</t>
         </is>
       </c>
       <c r="E189" t="inlineStr"/>
@@ -6827,7 +6827,7 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/2</t>
         </is>
       </c>
     </row>
@@ -6844,12 +6844,12 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>-0.2</t>
+          <t>-1.1</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>10.3</t>
+          <t>-1.3</t>
         </is>
       </c>
       <c r="E190" t="inlineStr"/>
@@ -6861,7 +6861,7 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/2</t>
         </is>
       </c>
     </row>
@@ -6878,12 +6878,12 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
           <t>0.5</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>-0.1</t>
         </is>
       </c>
       <c r="E191" t="inlineStr"/>
@@ -6895,7 +6895,7 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/2</t>
         </is>
       </c>
     </row>
@@ -7048,12 +7048,12 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
+          <t>60.2</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
           <t>71.7</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>17.7</t>
         </is>
       </c>
       <c r="E196" t="inlineStr"/>
@@ -7065,7 +7065,7 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Sep/2</t>
         </is>
       </c>
     </row>
@@ -7082,7 +7082,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>-0.1</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -7099,7 +7099,7 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/2</t>
         </is>
       </c>
     </row>
@@ -7218,12 +7218,12 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>-0.28</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>-0.42</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="E201" t="inlineStr"/>
@@ -7235,7 +7235,7 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/2</t>
         </is>
       </c>
     </row>
@@ -7252,12 +7252,12 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
           <t>-9</t>
-        </is>
-      </c>
-      <c r="D202" t="inlineStr">
-        <is>
-          <t>-9.7</t>
         </is>
       </c>
       <c r="E202" t="inlineStr"/>
@@ -7269,7 +7269,7 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/2</t>
         </is>
       </c>
     </row>
@@ -7388,12 +7388,12 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
+          <t>41.6</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
           <t>46.6</t>
-        </is>
-      </c>
-      <c r="D206" t="inlineStr">
-        <is>
-          <t>46.1</t>
         </is>
       </c>
       <c r="E206" t="inlineStr"/>
@@ -7405,7 +7405,7 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/2</t>
         </is>
       </c>
     </row>
@@ -7422,12 +7422,12 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>11.03</t>
+          <t>10.82</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>9.4</t>
+          <t>11.07</t>
         </is>
       </c>
       <c r="E207" t="inlineStr"/>
@@ -7439,7 +7439,7 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/2</t>
         </is>
       </c>
     </row>
@@ -7456,12 +7456,12 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>223</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>267</t>
         </is>
       </c>
       <c r="E208" t="inlineStr"/>
@@ -7473,7 +7473,7 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/2</t>
         </is>
       </c>
     </row>
@@ -7558,12 +7558,12 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E211" t="inlineStr"/>
@@ -7575,7 +7575,7 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/2</t>
         </is>
       </c>
     </row>
@@ -7592,12 +7592,12 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="E212" t="inlineStr"/>
@@ -7609,7 +7609,7 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/2</t>
         </is>
       </c>
     </row>
@@ -7626,12 +7626,12 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>-0.21</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>-0.42</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E213" t="inlineStr"/>
@@ -7643,7 +7643,7 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/2</t>
         </is>
       </c>
     </row>
@@ -7660,12 +7660,12 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="E214" t="inlineStr"/>
@@ -7677,7 +7677,7 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/2</t>
         </is>
       </c>
     </row>
@@ -7762,12 +7762,12 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
+          <t>-5.1</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
           <t>2.9</t>
-        </is>
-      </c>
-      <c r="D217" t="inlineStr">
-        <is>
-          <t>-0.7</t>
         </is>
       </c>
       <c r="E217" t="inlineStr"/>
@@ -7779,7 +7779,7 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/2</t>
         </is>
       </c>
     </row>
@@ -7796,12 +7796,12 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
+          <t>-3.7</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
           <t>-5.2</t>
-        </is>
-      </c>
-      <c r="D218" t="inlineStr">
-        <is>
-          <t>-4.2</t>
         </is>
       </c>
       <c r="E218" t="inlineStr"/>
@@ -7813,7 +7813,7 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/2</t>
         </is>
       </c>
     </row>
@@ -7830,12 +7830,12 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
+          <t>16.3</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
           <t>18.2</t>
-        </is>
-      </c>
-      <c r="D219" t="inlineStr">
-        <is>
-          <t>28.2</t>
         </is>
       </c>
       <c r="E219" t="inlineStr"/>
@@ -7847,7 +7847,7 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/2</t>
         </is>
       </c>
     </row>
@@ -7864,12 +7864,12 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
+          <t>14.6</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
           <t>-3.2</t>
-        </is>
-      </c>
-      <c r="D220" t="inlineStr">
-        <is>
-          <t>1.6</t>
         </is>
       </c>
       <c r="E220" t="inlineStr"/>
@@ -7881,7 +7881,7 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/2</t>
         </is>
       </c>
     </row>
@@ -7898,12 +7898,12 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
+          <t>1.5</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
           <t>-7</t>
-        </is>
-      </c>
-      <c r="D221" t="inlineStr">
-        <is>
-          <t>0.8</t>
         </is>
       </c>
       <c r="E221" t="inlineStr"/>
@@ -7915,7 +7915,7 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/2</t>
         </is>
       </c>
     </row>
@@ -7932,12 +7932,12 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
           <t>-2.6</t>
-        </is>
-      </c>
-      <c r="D222" t="inlineStr">
-        <is>
-          <t>-7.7</t>
         </is>
       </c>
       <c r="E222" t="inlineStr"/>
@@ -7949,7 +7949,7 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/2</t>
         </is>
       </c>
     </row>
@@ -7966,12 +7966,12 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
+          <t>9.2</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
           <t>10.1</t>
-        </is>
-      </c>
-      <c r="D223" t="inlineStr">
-        <is>
-          <t>8.7</t>
         </is>
       </c>
       <c r="E223" t="inlineStr"/>
@@ -7983,7 +7983,7 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/2</t>
         </is>
       </c>
     </row>
@@ -8374,12 +8374,12 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
           <t>-8</t>
-        </is>
-      </c>
-      <c r="D235" t="inlineStr">
-        <is>
-          <t>-3</t>
         </is>
       </c>
       <c r="E235" t="inlineStr"/>
@@ -8391,7 +8391,7 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/2</t>
         </is>
       </c>
     </row>
@@ -8408,12 +8408,12 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
           <t>-11</t>
-        </is>
-      </c>
-      <c r="D236" t="inlineStr">
-        <is>
-          <t>-7</t>
         </is>
       </c>
       <c r="E236" t="inlineStr"/>
@@ -8425,7 +8425,7 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/2</t>
         </is>
       </c>
     </row>
@@ -8442,12 +8442,12 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
           <t>-14</t>
-        </is>
-      </c>
-      <c r="D237" t="inlineStr">
-        <is>
-          <t>-12</t>
         </is>
       </c>
       <c r="E237" t="inlineStr"/>
@@ -8459,7 +8459,7 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/2</t>
         </is>
       </c>
     </row>
@@ -8476,12 +8476,12 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
           <t>13</t>
-        </is>
-      </c>
-      <c r="D238" t="inlineStr">
-        <is>
-          <t>18</t>
         </is>
       </c>
       <c r="E238" t="inlineStr"/>
@@ -8493,7 +8493,7 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/2</t>
         </is>
       </c>
     </row>
@@ -8510,12 +8510,12 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
           <t>-12</t>
-        </is>
-      </c>
-      <c r="D239" t="inlineStr">
-        <is>
-          <t>-1</t>
         </is>
       </c>
       <c r="E239" t="inlineStr"/>
@@ -8527,7 +8527,7 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/2</t>
         </is>
       </c>
     </row>
@@ -8578,12 +8578,12 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>-0.2</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="E241" t="inlineStr"/>
@@ -8595,7 +8595,7 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/2</t>
         </is>
       </c>
     </row>
@@ -8918,12 +8918,12 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
           <t>0.5</t>
-        </is>
-      </c>
-      <c r="D251" t="inlineStr">
-        <is>
-          <t>0.6</t>
         </is>
       </c>
       <c r="E251" t="inlineStr"/>
@@ -8935,7 +8935,7 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/2</t>
         </is>
       </c>
     </row>
@@ -9122,12 +9122,12 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
           <t>-18</t>
-        </is>
-      </c>
-      <c r="D257" t="inlineStr">
-        <is>
-          <t>6</t>
         </is>
       </c>
       <c r="E257" t="inlineStr"/>
@@ -9139,7 +9139,7 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/2</t>
         </is>
       </c>
     </row>
@@ -9394,7 +9394,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>68.9</t>
+          <t>70.5</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -9530,12 +9530,12 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
+          <t>16112</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
           <t>15967</t>
-        </is>
-      </c>
-      <c r="D269" t="inlineStr">
-        <is>
-          <t>15857</t>
         </is>
       </c>
       <c r="E269" t="inlineStr"/>
@@ -9547,7 +9547,7 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Sep/2</t>
         </is>
       </c>
     </row>
@@ -9598,12 +9598,12 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
           <t>0.2</t>
-        </is>
-      </c>
-      <c r="D271" t="inlineStr">
-        <is>
-          <t>0.5</t>
         </is>
       </c>
       <c r="E271" t="inlineStr"/>
@@ -9615,7 +9615,7 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/2</t>
         </is>
       </c>
     </row>
@@ -9632,12 +9632,12 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
           <t>0.2</t>
-        </is>
-      </c>
-      <c r="D272" t="inlineStr">
-        <is>
-          <t>0.3</t>
         </is>
       </c>
       <c r="E272" t="inlineStr"/>
@@ -9649,7 +9649,7 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/2</t>
         </is>
       </c>
     </row>
@@ -9666,12 +9666,12 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
           <t>4.8</t>
-        </is>
-      </c>
-      <c r="D273" t="inlineStr">
-        <is>
-          <t>4.9</t>
         </is>
       </c>
       <c r="E273" t="inlineStr"/>
@@ -9683,7 +9683,7 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/2</t>
         </is>
       </c>
     </row>
@@ -9836,12 +9836,12 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
+          <t>5.6</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
           <t>4.6</t>
-        </is>
-      </c>
-      <c r="D278" t="inlineStr">
-        <is>
-          <t>5.6</t>
         </is>
       </c>
       <c r="E278" t="inlineStr"/>
@@ -10074,7 +10074,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>72.9</t>
+          <t>74.1</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
@@ -10108,7 +10108,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>62.7</t>
+          <t>64.9</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -10278,12 +10278,12 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
           <t>0.85</t>
-        </is>
-      </c>
-      <c r="D291" t="inlineStr">
-        <is>
-          <t>0.9</t>
         </is>
       </c>
       <c r="E291" t="inlineStr"/>
@@ -10291,7 +10291,7 @@
       <c r="G291" t="inlineStr"/>
       <c r="H291" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/2</t>
         </is>
       </c>
     </row>
@@ -10342,7 +10342,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>1428</t>
+          <t>1425</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
@@ -10410,12 +10410,12 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>716</t>
+          <t>738</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>739</t>
+          <t>709</t>
         </is>
       </c>
       <c r="E295" t="inlineStr"/>
@@ -10427,7 +10427,7 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/2</t>
         </is>
       </c>
     </row>
@@ -10444,12 +10444,12 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
+          <t>2.6</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
           <t>-3</t>
-        </is>
-      </c>
-      <c r="D296" t="inlineStr">
-        <is>
-          <t>-8.5</t>
         </is>
       </c>
       <c r="E296" t="inlineStr"/>
@@ -10461,7 +10461,7 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/2</t>
         </is>
       </c>
     </row>
@@ -10478,12 +10478,12 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>3860</t>
+          <t>3840</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>3960</t>
+          <t>3880</t>
         </is>
       </c>
       <c r="E297" t="inlineStr"/>
@@ -10495,7 +10495,7 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/2</t>
         </is>
       </c>
     </row>
@@ -10546,12 +10546,12 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>427</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>426</t>
         </is>
       </c>
       <c r="E299" t="inlineStr"/>
@@ -10563,7 +10563,7 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Jul/2</t>
+          <t>Aug/2</t>
         </is>
       </c>
     </row>
@@ -10614,12 +10614,12 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
           <t>6.52</t>
-        </is>
-      </c>
-      <c r="D301" t="inlineStr">
-        <is>
-          <t>6.36</t>
         </is>
       </c>
       <c r="E301" t="inlineStr"/>
@@ -10648,12 +10648,12 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>-17</t>
+          <t>-0.1</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>-5.1</t>
+          <t>-6.7</t>
         </is>
       </c>
       <c r="E302" t="inlineStr"/>
@@ -10682,12 +10682,12 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>5.63</t>
+          <t>5.99</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>5.41</t>
+          <t>5.71</t>
         </is>
       </c>
       <c r="E303" t="inlineStr"/>
@@ -10716,12 +10716,12 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>6.44</t>
+          <t>6.72</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>6.32</t>
+          <t>6.54</t>
         </is>
       </c>
       <c r="E304" t="inlineStr"/>
@@ -10750,12 +10750,12 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>492700</t>
+          <t>501000</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>514800</t>
+          <t>486500</t>
         </is>
       </c>
       <c r="E305" t="inlineStr"/>
@@ -10767,7 +10767,7 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/2</t>
         </is>
       </c>
     </row>
@@ -10818,7 +10818,7 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>-2.9</t>
+          <t>-3.1</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
@@ -10852,12 +10852,12 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
+          <t>-0.3</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
           <t>0</t>
-        </is>
-      </c>
-      <c r="D308" t="inlineStr">
-        <is>
-          <t>0.6</t>
         </is>
       </c>
       <c r="E308" t="inlineStr"/>
@@ -10869,7 +10869,7 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>Jul/2</t>
+          <t>Aug/2</t>
         </is>
       </c>
     </row>
@@ -10886,12 +10886,12 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
+          <t>5.2</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
           <t>5.9</t>
-        </is>
-      </c>
-      <c r="D309" t="inlineStr">
-        <is>
-          <t>6.5</t>
         </is>
       </c>
       <c r="E309" t="inlineStr"/>
@@ -10903,7 +10903,7 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>Jul/2</t>
+          <t>Aug/2</t>
         </is>
       </c>
     </row>
@@ -10920,12 +10920,12 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>-2.5</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="E310" t="inlineStr"/>
@@ -10937,7 +10937,7 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/2</t>
         </is>
       </c>
     </row>
@@ -10954,12 +10954,12 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="E311" t="inlineStr"/>
@@ -10971,7 +10971,7 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Jul/2</t>
+          <t>Aug/2</t>
         </is>
       </c>
     </row>
@@ -10988,12 +10988,12 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="E312" t="inlineStr"/>
@@ -11005,7 +11005,7 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Jul/2</t>
+          <t>Aug/2</t>
         </is>
       </c>
     </row>
@@ -11093,12 +11093,16 @@
           <t>1027</t>
         </is>
       </c>
-      <c r="D315" t="inlineStr"/>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
       <c r="E315" t="inlineStr"/>
       <c r="F315" t="inlineStr"/>
       <c r="G315" t="inlineStr">
         <is>
-          <t>one thousand Thousand units</t>
+          <t>Thousand units</t>
         </is>
       </c>
       <c r="H315" t="inlineStr">
@@ -11120,12 +11124,12 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>214</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>215</t>
         </is>
       </c>
       <c r="E316" t="inlineStr"/>
@@ -11154,12 +11158,12 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>735</t>
+          <t>630</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>997</t>
+          <t>673</t>
         </is>
       </c>
       <c r="E317" t="inlineStr"/>
@@ -11193,7 +11197,7 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>131</t>
         </is>
       </c>
       <c r="E318" t="inlineStr"/>
@@ -11290,12 +11294,12 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>-4.7</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>10.6</t>
+          <t>-2.3</t>
         </is>
       </c>
       <c r="E321" t="inlineStr"/>
@@ -11307,7 +11311,7 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/2</t>
         </is>
       </c>
     </row>
@@ -11324,12 +11328,12 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
+          <t>7.4</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
           <t>0.6</t>
-        </is>
-      </c>
-      <c r="D322" t="inlineStr">
-        <is>
-          <t>-5.5</t>
         </is>
       </c>
       <c r="E322" t="inlineStr"/>
@@ -11341,7 +11345,7 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/2</t>
         </is>
       </c>
     </row>
@@ -11358,12 +11362,12 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>1330</t>
+          <t>1390</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>1320</t>
+          <t>1370</t>
         </is>
       </c>
       <c r="E323" t="inlineStr"/>
@@ -11375,7 +11379,7 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Jul/2</t>
+          <t>Sep/2</t>
         </is>
       </c>
     </row>
@@ -11392,7 +11396,7 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>335</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
@@ -11409,7 +11413,7 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Jul/2</t>
+          <t>Aug/2</t>
         </is>
       </c>
     </row>
@@ -11460,12 +11464,12 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>416700</t>
+          <t>404500</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>421400</t>
+          <t>414200</t>
         </is>
       </c>
       <c r="E326" t="inlineStr"/>
@@ -11477,7 +11481,7 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/2</t>
         </is>
       </c>
     </row>
@@ -11494,7 +11498,7 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>134</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
@@ -11507,7 +11511,7 @@
       <c r="G327" t="inlineStr"/>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Mar/2</t>
+          <t>Jun/2</t>
         </is>
       </c>
     </row>
@@ -11558,12 +11562,12 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>-2.19</t>
+          <t>-0.52</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>5.81</t>
+          <t>5.47</t>
         </is>
       </c>
       <c r="E329" t="inlineStr"/>
@@ -11588,12 +11592,12 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>-2201</t>
+          <t>-2707</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>-6304</t>
+          <t>878</t>
         </is>
       </c>
       <c r="E330" t="inlineStr"/>
@@ -11622,12 +11626,12 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>78</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>80</t>
         </is>
       </c>
       <c r="E331" t="inlineStr"/>
@@ -11656,12 +11660,12 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
+          <t>-0.57</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
           <t>1.64</t>
-        </is>
-      </c>
-      <c r="D332" t="inlineStr">
-        <is>
-          <t>-1.58</t>
         </is>
       </c>
       <c r="E332" t="inlineStr"/>
@@ -11686,12 +11690,12 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
+          <t>480</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
           <t>482</t>
-        </is>
-      </c>
-      <c r="D333" t="inlineStr">
-        <is>
-          <t>481</t>
         </is>
       </c>
       <c r="E333" t="inlineStr"/>
@@ -11716,12 +11720,12 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
+          <t>384642</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
           <t>383882</t>
-        </is>
-      </c>
-      <c r="D334" t="inlineStr">
-        <is>
-          <t>382930</t>
         </is>
       </c>
       <c r="E334" t="inlineStr"/>
@@ -11755,7 +11759,7 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>585</t>
         </is>
       </c>
       <c r="E335" t="inlineStr"/>
@@ -11840,12 +11844,12 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
           <t>-0.22</t>
-        </is>
-      </c>
-      <c r="D338" t="inlineStr">
-        <is>
-          <t>0.41</t>
         </is>
       </c>
       <c r="E338" t="inlineStr"/>
@@ -11870,12 +11874,12 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
+          <t>-1.46</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
           <t>-1.48</t>
-        </is>
-      </c>
-      <c r="D339" t="inlineStr">
-        <is>
-          <t>-2.67</t>
         </is>
       </c>
       <c r="E339" t="inlineStr"/>
@@ -11900,12 +11904,12 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
+          <t>-0.28</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
           <t>-2.02</t>
-        </is>
-      </c>
-      <c r="D340" t="inlineStr">
-        <is>
-          <t>-5.93</t>
         </is>
       </c>
       <c r="E340" t="inlineStr"/>
@@ -11990,12 +11994,12 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>-1039</t>
+          <t>-605</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>-305</t>
+          <t>913</t>
         </is>
       </c>
       <c r="E343" t="inlineStr"/>
@@ -12024,12 +12028,12 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>681</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>1247</t>
+          <t>-346</t>
         </is>
       </c>
       <c r="E344" t="inlineStr"/>
@@ -12058,12 +12062,12 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>-234</t>
+          <t>-148</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>257</t>
         </is>
       </c>
       <c r="E345" t="inlineStr"/>
@@ -12092,12 +12096,12 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>-3534</t>
+          <t>-977</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>-3124</t>
+          <t>-1140</t>
         </is>
       </c>
       <c r="E346" t="inlineStr"/>
@@ -12126,12 +12130,12 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>-941</t>
+          <t>-259</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>627</t>
+          <t>666</t>
         </is>
       </c>
       <c r="E347" t="inlineStr"/>
@@ -12160,12 +12164,12 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>-343</t>
+          <t>571</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>497</t>
+          <t>-280</t>
         </is>
       </c>
       <c r="E348" t="inlineStr"/>
@@ -12194,12 +12198,12 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>-31</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>-101</t>
+          <t>329</t>
         </is>
       </c>
       <c r="E349" t="inlineStr"/>
@@ -12237,10 +12241,14 @@
         </is>
       </c>
       <c r="E350" t="inlineStr"/>
-      <c r="F350" t="inlineStr"/>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
       <c r="G350" t="inlineStr">
         <is>
-          <t>per one thousand people</t>
+          <t>per people</t>
         </is>
       </c>
       <c r="H350" t="inlineStr">
@@ -12305,10 +12313,14 @@
         </is>
       </c>
       <c r="E352" t="inlineStr"/>
-      <c r="F352" t="inlineStr"/>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
       <c r="G352" t="inlineStr">
         <is>
-          <t>per one thousand people</t>
+          <t>per people</t>
         </is>
       </c>
       <c r="H352" t="inlineStr">
@@ -12339,10 +12351,14 @@
         </is>
       </c>
       <c r="E353" t="inlineStr"/>
-      <c r="F353" t="inlineStr"/>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
       <c r="G353" t="inlineStr">
         <is>
-          <t>per one thousand people</t>
+          <t>per people</t>
         </is>
       </c>
       <c r="H353" t="inlineStr">

--- a/auto/new_data/5_經濟數據_united-states.xlsx
+++ b/auto/new_data/5_經濟數據_united-states.xlsx
@@ -518,7 +518,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>5715</t>
+          <t>5710</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">

--- a/auto/new_data/5_經濟數據_united-states.xlsx
+++ b/auto/new_data/5_經濟數據_united-states.xlsx
@@ -488,12 +488,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>105</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>105</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -501,7 +501,7 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Nov/2</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -518,12 +518,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>5710</t>
+          <t>5996</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5705</t>
+          <t>5973</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -535,7 +535,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Nov/2</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -569,7 +569,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -603,7 +603,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -625,7 +625,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -637,7 +637,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -654,12 +654,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>223</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -671,7 +671,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -756,12 +756,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>5</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>5.5</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -773,7 +773,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -790,12 +790,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-70.43</t>
+          <t>-84.36</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-78.92</t>
+          <t>-70.79</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -807,7 +807,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -841,7 +841,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -875,7 +875,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -909,7 +909,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -943,7 +943,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -960,7 +960,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>47.2</t>
+          <t>46.5</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -977,7 +977,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -994,7 +994,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>48.5</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -1028,12 +1028,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>54.9</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>51.5</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -1062,7 +1062,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>55.3</t>
+          <t>55</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1079,7 +1079,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -1096,12 +1096,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>70.5</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>70.1</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -1113,7 +1113,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -1147,7 +1147,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -1181,7 +1181,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -1215,7 +1215,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -1317,7 +1317,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -1351,7 +1351,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -1385,7 +1385,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -1419,7 +1419,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -1453,7 +1453,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -1487,7 +1487,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -1589,7 +1589,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -1623,7 +1623,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -1640,12 +1640,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>2.11</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>1.71</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -1657,7 +1657,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -1691,7 +1691,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -1725,7 +1725,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -1759,7 +1759,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -1793,7 +1793,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -1827,7 +1827,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -1929,7 +1929,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -1951,7 +1951,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -1963,7 +1963,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -1980,12 +1980,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>223</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -1997,7 +1997,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2014,12 +2014,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>31</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>45</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2048,12 +2048,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>-28</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>192</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -2065,7 +2065,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2082,12 +2082,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>-46</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>-27</t>
+          <t>-6</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -2099,7 +2099,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2116,12 +2116,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>221</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>218</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -2133,7 +2133,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -2150,12 +2150,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>1862</t>
+          <t>1892</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>1888</t>
+          <t>1853</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2201,7 +2201,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2218,12 +2218,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
+          <t>161496</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
           <t>161864</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>161434</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -2235,7 +2235,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2252,12 +2252,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>6984</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
           <t>6834</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>7115</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -2269,7 +2269,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2291,7 +2291,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
@@ -2303,7 +2303,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2320,7 +2320,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>34.2</t>
+          <t>34.3</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2337,7 +2337,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2354,7 +2354,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>62.7</t>
+          <t>62.6</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2371,7 +2371,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2388,12 +2388,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
           <t>0.97</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>0.91</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
@@ -2405,7 +2405,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2422,12 +2422,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>9.5</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
           <t>9.2</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>9.7</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
@@ -2439,7 +2439,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2456,12 +2456,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>122</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>121</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
@@ -2473,7 +2473,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -2490,12 +2490,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>114</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>114</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
@@ -2507,7 +2507,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -2541,7 +2541,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -2575,7 +2575,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -2609,7 +2609,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2639,7 +2639,7 @@
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -2669,7 +2669,7 @@
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -2703,7 +2703,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Aug/24</t>
         </is>
       </c>
     </row>
@@ -2733,7 +2733,7 @@
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -2767,7 +2767,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -2801,7 +2801,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -2835,7 +2835,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -2869,7 +2869,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -2903,7 +2903,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -2971,7 +2971,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -3005,7 +3005,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -3039,7 +3039,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -3073,7 +3073,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -3107,7 +3107,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -3124,12 +3124,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="E80" t="inlineStr"/>
@@ -3141,7 +3141,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -3163,7 +3163,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>7.9</t>
+          <t>7.7</t>
         </is>
       </c>
       <c r="E81" t="inlineStr"/>
@@ -3175,7 +3175,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -3192,12 +3192,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="E82" t="inlineStr"/>
@@ -3209,7 +3209,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -3226,12 +3226,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
           <t>60.2</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>60</t>
         </is>
       </c>
       <c r="E83" t="inlineStr"/>
@@ -3243,7 +3243,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -3260,12 +3260,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
+          <t>133496</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
           <t>133660</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>133246</t>
         </is>
       </c>
       <c r="E84" t="inlineStr"/>
@@ -3277,7 +3277,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -3294,12 +3294,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>227</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>237</t>
         </is>
       </c>
       <c r="E85" t="inlineStr"/>
@@ -3311,7 +3311,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -3328,12 +3328,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
+          <t>27943</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
           <t>28161</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>28256</t>
         </is>
       </c>
       <c r="E86" t="inlineStr"/>
@@ -3345,7 +3345,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -3379,7 +3379,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -3413,7 +3413,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -3481,7 +3481,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -3515,7 +3515,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -3549,7 +3549,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -3583,7 +3583,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -3617,7 +3617,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -3651,7 +3651,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -3685,7 +3685,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -3719,7 +3719,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -3753,7 +3753,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -3787,7 +3787,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -3821,7 +3821,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -3855,7 +3855,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -3889,7 +3889,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -3923,7 +3923,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -3957,7 +3957,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -3991,7 +3991,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -4025,7 +4025,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -4059,7 +4059,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -4093,7 +4093,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -4127,7 +4127,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -4144,12 +4144,12 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
+          <t>3.1</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>3.1</t>
         </is>
       </c>
       <c r="E110" t="inlineStr"/>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -4178,7 +4178,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -4195,7 +4195,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -4229,7 +4229,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -4263,7 +4263,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -4297,7 +4297,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -4331,7 +4331,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -4365,7 +4365,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -4399,7 +4399,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -4433,7 +4433,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -4467,7 +4467,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -4489,7 +4489,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="E120" t="inlineStr"/>
@@ -4501,7 +4501,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -4535,7 +4535,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -4569,7 +4569,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -4603,7 +4603,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -4637,7 +4637,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -4671,7 +4671,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -4739,7 +4739,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -4773,7 +4773,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -4807,7 +4807,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -4824,12 +4824,12 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
           <t>5</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>5.5</t>
         </is>
       </c>
       <c r="E130" t="inlineStr"/>
@@ -4841,7 +4841,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -4875,7 +4875,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -4909,7 +4909,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -4943,7 +4943,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -4977,7 +4977,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -4994,12 +4994,12 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
+          <t>23585</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
           <t>23508</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>23403</t>
         </is>
       </c>
       <c r="E135" t="inlineStr"/>
@@ -5011,7 +5011,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -5028,12 +5028,12 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
+          <t>6994299</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
           <t>7013490</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>7029408</t>
         </is>
       </c>
       <c r="E136" t="inlineStr"/>
@@ -5045,7 +5045,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -5062,12 +5062,12 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
+          <t>37805</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
           <t>37318</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>36357</t>
         </is>
       </c>
       <c r="E137" t="inlineStr"/>
@@ -5079,7 +5079,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -5113,7 +5113,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -5147,7 +5147,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -5181,7 +5181,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -5198,7 +5198,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>4.46</t>
+          <t>4.71</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -5215,7 +5215,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -5249,7 +5249,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -5283,7 +5283,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Aug/24</t>
         </is>
       </c>
     </row>
@@ -5317,7 +5317,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -5334,12 +5334,12 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>-70.43</t>
+          <t>-84.36</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>-78.92</t>
+          <t>-70.79</t>
         </is>
       </c>
       <c r="E145" t="inlineStr"/>
@@ -5351,7 +5351,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -5385,7 +5385,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -5419,7 +5419,7 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -5436,12 +5436,12 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>268</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>271</t>
         </is>
       </c>
       <c r="E148" t="inlineStr"/>
@@ -5453,7 +5453,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -5470,12 +5470,12 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
           <t>342</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>345</t>
         </is>
       </c>
       <c r="E149" t="inlineStr"/>
@@ -5487,7 +5487,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -5521,7 +5521,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Mar/2</t>
+          <t>Mar/24</t>
         </is>
       </c>
     </row>
@@ -5555,7 +5555,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -5589,7 +5589,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Aug/24</t>
         </is>
       </c>
     </row>
@@ -5623,7 +5623,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -5657,7 +5657,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Aug/24</t>
         </is>
       </c>
     </row>
@@ -5691,7 +5691,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -5708,12 +5708,12 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>13205</t>
+          <t>13401</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>13230</t>
+          <t>13206</t>
         </is>
       </c>
       <c r="E156" t="inlineStr"/>
@@ -5721,7 +5721,7 @@
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Jul/2</t>
+          <t>Aug/24</t>
         </is>
       </c>
     </row>
@@ -5738,12 +5738,12 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>60.4</t>
+          <t>69.1</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>71.9</t>
+          <t>59.3</t>
         </is>
       </c>
       <c r="E157" t="inlineStr"/>
@@ -5755,7 +5755,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Jul/2</t>
+          <t>Aug/24</t>
         </is>
       </c>
     </row>
@@ -5789,7 +5789,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -5823,7 +5823,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -5857,7 +5857,7 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -5891,7 +5891,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -5908,12 +5908,12 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
+          <t>9682</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
           <t>10762</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>10266</t>
         </is>
       </c>
       <c r="E162" t="inlineStr"/>
@@ -5925,7 +5925,7 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Jul/2</t>
+          <t>Aug/24</t>
         </is>
       </c>
     </row>
@@ -5959,7 +5959,7 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -5993,7 +5993,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Aug/24</t>
         </is>
       </c>
     </row>
@@ -6010,12 +6010,12 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
+          <t>7527819</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
           <t>6899661</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>5639831</t>
         </is>
       </c>
       <c r="E165" t="inlineStr"/>
@@ -6023,7 +6023,7 @@
       <c r="G165" t="inlineStr"/>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Jul/2</t>
+          <t>Aug/24</t>
         </is>
       </c>
     </row>
@@ -6057,7 +6057,7 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -6091,7 +6091,7 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -6125,7 +6125,7 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -6159,7 +6159,7 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -6193,7 +6193,7 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -6227,7 +6227,7 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -6244,12 +6244,12 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
+          <t>35951601</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
           <t>35464674</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>35256057</t>
         </is>
       </c>
       <c r="E172" t="inlineStr"/>
@@ -6261,7 +6261,7 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -6295,7 +6295,7 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -6329,7 +6329,7 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -6363,7 +6363,7 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -6393,7 +6393,7 @@
       <c r="G176" t="inlineStr"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -6419,7 +6419,7 @@
       <c r="G177" t="inlineStr"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -6453,7 +6453,7 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -6487,7 +6487,7 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -6504,7 +6504,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>47.2</t>
+          <t>46.5</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -6521,7 +6521,7 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -6538,7 +6538,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>48.5</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -6555,7 +6555,7 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -6572,12 +6572,12 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
           <t>54.9</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>51.5</t>
         </is>
       </c>
       <c r="E182" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -6606,7 +6606,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>55.3</t>
+          <t>55</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -6623,7 +6623,7 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -6640,7 +6640,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>54.3</t>
+          <t>54.1</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -6657,7 +6657,7 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -6691,7 +6691,7 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -6725,7 +6725,7 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -6759,7 +6759,7 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -6793,7 +6793,7 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -6827,7 +6827,7 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -6861,7 +6861,7 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -6895,7 +6895,7 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -6912,12 +6912,12 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>-0.1</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>-0.2</t>
         </is>
       </c>
       <c r="E192" t="inlineStr"/>
@@ -6929,7 +6929,7 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -6946,12 +6946,12 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>-0.2</t>
+          <t>-0.5</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>-0.8</t>
         </is>
       </c>
       <c r="E193" t="inlineStr"/>
@@ -6963,7 +6963,7 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -6980,12 +6980,12 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>590351</t>
+          <t>584245</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>591644</t>
+          <t>587023</t>
         </is>
       </c>
       <c r="E194" t="inlineStr"/>
@@ -6997,7 +6997,7 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -7031,7 +7031,7 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Aug/24</t>
         </is>
       </c>
     </row>
@@ -7065,7 +7065,7 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -7082,7 +7082,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>-0.1</t>
+          <t>-0.2</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -7099,7 +7099,7 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -7133,7 +7133,7 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -7167,7 +7167,7 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -7201,7 +7201,7 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -7235,7 +7235,7 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -7269,7 +7269,7 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -7303,7 +7303,7 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -7337,7 +7337,7 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -7371,7 +7371,7 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -7405,7 +7405,7 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -7439,7 +7439,7 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -7473,7 +7473,7 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -7490,12 +7490,12 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
           <t>15.8</t>
-        </is>
-      </c>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>15.1</t>
         </is>
       </c>
       <c r="E209" t="inlineStr"/>
@@ -7507,7 +7507,7 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -7541,7 +7541,7 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -7575,7 +7575,7 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -7609,7 +7609,7 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -7643,7 +7643,7 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -7677,7 +7677,7 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -7711,7 +7711,7 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -7745,7 +7745,7 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -7779,7 +7779,7 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -7813,7 +7813,7 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -7847,7 +7847,7 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -7881,7 +7881,7 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -7915,7 +7915,7 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -7949,7 +7949,7 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -7983,7 +7983,7 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -8017,7 +8017,7 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -8034,12 +8034,12 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
+          <t>44.4</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
           <t>43.9</t>
-        </is>
-      </c>
-      <c r="D225" t="inlineStr">
-        <is>
-          <t>46</t>
         </is>
       </c>
       <c r="E225" t="inlineStr"/>
@@ -8051,7 +8051,7 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -8085,7 +8085,7 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -8102,12 +8102,12 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
+          <t>47.1</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
           <t>46.1</t>
-        </is>
-      </c>
-      <c r="D227" t="inlineStr">
-        <is>
-          <t>44.6</t>
         </is>
       </c>
       <c r="E227" t="inlineStr"/>
@@ -8119,7 +8119,7 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -8136,12 +8136,12 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
+          <t>54.8</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
           <t>48.3</t>
-        </is>
-      </c>
-      <c r="D228" t="inlineStr">
-        <is>
-          <t>54</t>
         </is>
       </c>
       <c r="E228" t="inlineStr"/>
@@ -8153,7 +8153,7 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -8187,7 +8187,7 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -8221,7 +8221,7 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -8238,12 +8238,12 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
+          <t>57.2</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
           <t>59.9</t>
-        </is>
-      </c>
-      <c r="D231" t="inlineStr">
-        <is>
-          <t>53.3</t>
         </is>
       </c>
       <c r="E231" t="inlineStr"/>
@@ -8255,7 +8255,7 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -8272,12 +8272,12 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
           <t>48.1</t>
-        </is>
-      </c>
-      <c r="D232" t="inlineStr">
-        <is>
-          <t>50.2</t>
         </is>
       </c>
       <c r="E232" t="inlineStr"/>
@@ -8289,7 +8289,7 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -8306,12 +8306,12 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
+          <t>57.4</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
           <t>59.4</t>
-        </is>
-      </c>
-      <c r="D233" t="inlineStr">
-        <is>
-          <t>53</t>
         </is>
       </c>
       <c r="E233" t="inlineStr"/>
@@ -8323,7 +8323,7 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -8340,12 +8340,12 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
+          <t>58.1</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
           <t>59.4</t>
-        </is>
-      </c>
-      <c r="D234" t="inlineStr">
-        <is>
-          <t>57.3</t>
         </is>
       </c>
       <c r="E234" t="inlineStr"/>
@@ -8357,7 +8357,7 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -8391,7 +8391,7 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -8425,7 +8425,7 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -8459,7 +8459,7 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -8493,7 +8493,7 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -8527,7 +8527,7 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -8561,7 +8561,7 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -8595,7 +8595,7 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -8629,7 +8629,7 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -8663,7 +8663,7 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -8697,7 +8697,7 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -8731,7 +8731,7 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -8765,7 +8765,7 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -8799,7 +8799,7 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -8833,7 +8833,7 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -8867,7 +8867,7 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -8901,7 +8901,7 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -8935,7 +8935,7 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -8969,7 +8969,7 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -9003,7 +9003,7 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -9037,7 +9037,7 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -9071,7 +9071,7 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -9105,7 +9105,7 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -9139,7 +9139,7 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -9156,12 +9156,12 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
+          <t>65.8</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
           <t>71.3</t>
-        </is>
-      </c>
-      <c r="D258" t="inlineStr">
-        <is>
-          <t>69</t>
         </is>
       </c>
       <c r="E258" t="inlineStr"/>
@@ -9173,7 +9173,7 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -9190,12 +9190,12 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
+          <t>58.9</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
           <t>58.6</t>
-        </is>
-      </c>
-      <c r="D259" t="inlineStr">
-        <is>
-          <t>56.4</t>
         </is>
       </c>
       <c r="E259" t="inlineStr"/>
@@ -9207,7 +9207,7 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -9224,12 +9224,12 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
+          <t>65.7</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
           <t>65.4</t>
-        </is>
-      </c>
-      <c r="D260" t="inlineStr">
-        <is>
-          <t>62.4</t>
         </is>
       </c>
       <c r="E260" t="inlineStr"/>
@@ -9241,7 +9241,7 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -9258,12 +9258,12 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
+          <t>64.1</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
           <t>58.4</t>
-        </is>
-      </c>
-      <c r="D261" t="inlineStr">
-        <is>
-          <t>61.6</t>
         </is>
       </c>
       <c r="E261" t="inlineStr"/>
@@ -9275,7 +9275,7 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -9292,12 +9292,12 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
+          <t>65.8</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
           <t>66.9</t>
-        </is>
-      </c>
-      <c r="D262" t="inlineStr">
-        <is>
-          <t>63.8</t>
         </is>
       </c>
       <c r="E262" t="inlineStr"/>
@@ -9309,7 +9309,7 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -9343,7 +9343,7 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -9360,12 +9360,12 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
+          <t>6700</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
           <t>7000</t>
-        </is>
-      </c>
-      <c r="D264" t="inlineStr">
-        <is>
-          <t>6900</t>
         </is>
       </c>
       <c r="E264" t="inlineStr"/>
@@ -9377,7 +9377,7 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -9394,12 +9394,12 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
           <t>70.5</t>
-        </is>
-      </c>
-      <c r="D265" t="inlineStr">
-        <is>
-          <t>70.1</t>
         </is>
       </c>
       <c r="E265" t="inlineStr"/>
@@ -9411,7 +9411,7 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -9445,7 +9445,7 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -9479,7 +9479,7 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -9513,7 +9513,7 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -9547,7 +9547,7 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -9564,12 +9564,12 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>21782</t>
+          <t>21856</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>21748</t>
+          <t>21798</t>
         </is>
       </c>
       <c r="E270" t="inlineStr"/>
@@ -9581,7 +9581,7 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -9615,7 +9615,7 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -9649,7 +9649,7 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -9683,7 +9683,7 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -9700,12 +9700,12 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
           <t>8.93</t>
-        </is>
-      </c>
-      <c r="D274" t="inlineStr">
-        <is>
-          <t>26.63</t>
         </is>
       </c>
       <c r="E274" t="inlineStr"/>
@@ -9717,7 +9717,7 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -9751,7 +9751,7 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -9785,7 +9785,7 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -9819,7 +9819,7 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -9836,12 +9836,12 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
           <t>5.6</t>
-        </is>
-      </c>
-      <c r="D278" t="inlineStr">
-        <is>
-          <t>4.6</t>
         </is>
       </c>
       <c r="E278" t="inlineStr"/>
@@ -9853,7 +9853,7 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -9887,7 +9887,7 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -9921,7 +9921,7 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -9955,7 +9955,7 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -9989,7 +9989,7 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -10023,7 +10023,7 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -10057,7 +10057,7 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -10074,12 +10074,12 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
+          <t>78.5</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
           <t>74.1</t>
-        </is>
-      </c>
-      <c r="D285" t="inlineStr">
-        <is>
-          <t>74.4</t>
         </is>
       </c>
       <c r="E285" t="inlineStr"/>
@@ -10091,7 +10091,7 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -10108,12 +10108,12 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
+          <t>64.4</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
           <t>64.9</t>
-        </is>
-      </c>
-      <c r="D286" t="inlineStr">
-        <is>
-          <t>63.3</t>
         </is>
       </c>
       <c r="E286" t="inlineStr"/>
@@ -10125,7 +10125,7 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -10159,7 +10159,7 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -10176,12 +10176,12 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
+          <t>-0.1</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
           <t>-0.5</t>
-        </is>
-      </c>
-      <c r="D288" t="inlineStr">
-        <is>
-          <t>1.2</t>
         </is>
       </c>
       <c r="E288" t="inlineStr"/>
@@ -10193,7 +10193,7 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -10210,12 +10210,12 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
+          <t>-3.2</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
           <t>-5.3</t>
-        </is>
-      </c>
-      <c r="D289" t="inlineStr">
-        <is>
-          <t>-3.9</t>
         </is>
       </c>
       <c r="E289" t="inlineStr"/>
@@ -10227,7 +10227,7 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -10261,7 +10261,7 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Aug/24</t>
         </is>
       </c>
     </row>
@@ -10291,7 +10291,7 @@
       <c r="G291" t="inlineStr"/>
       <c r="H291" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -10325,7 +10325,7 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>Mar/2</t>
+          <t>Mar/24</t>
         </is>
       </c>
     </row>
@@ -10359,7 +10359,7 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -10393,7 +10393,7 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -10427,7 +10427,7 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -10461,7 +10461,7 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -10495,7 +10495,7 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -10512,12 +10512,12 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>-0.1</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>-0.5</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="E298" t="inlineStr"/>
@@ -10529,7 +10529,7 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -10563,7 +10563,7 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Aug/24</t>
         </is>
       </c>
     </row>
@@ -10597,7 +10597,7 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -10614,12 +10614,12 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
           <t>6.73</t>
-        </is>
-      </c>
-      <c r="D301" t="inlineStr">
-        <is>
-          <t>6.52</t>
         </is>
       </c>
       <c r="E301" t="inlineStr"/>
@@ -10631,7 +10631,7 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -10648,12 +10648,12 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
+          <t>-10.8</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
           <t>-0.1</t>
-        </is>
-      </c>
-      <c r="D302" t="inlineStr">
-        <is>
-          <t>-6.7</t>
         </is>
       </c>
       <c r="E302" t="inlineStr"/>
@@ -10665,7 +10665,7 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -10682,12 +10682,12 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
           <t>5.99</t>
-        </is>
-      </c>
-      <c r="D303" t="inlineStr">
-        <is>
-          <t>5.71</t>
         </is>
       </c>
       <c r="E303" t="inlineStr"/>
@@ -10699,7 +10699,7 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -10716,12 +10716,12 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
           <t>6.72</t>
-        </is>
-      </c>
-      <c r="D304" t="inlineStr">
-        <is>
-          <t>6.54</t>
         </is>
       </c>
       <c r="E304" t="inlineStr"/>
@@ -10733,7 +10733,7 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -10767,7 +10767,7 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -10801,7 +10801,7 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -10835,7 +10835,7 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -10869,7 +10869,7 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Aug/24</t>
         </is>
       </c>
     </row>
@@ -10903,7 +10903,7 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Aug/24</t>
         </is>
       </c>
     </row>
@@ -10937,7 +10937,7 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -10971,7 +10971,7 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Aug/24</t>
         </is>
       </c>
     </row>
@@ -11005,7 +11005,7 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Aug/24</t>
         </is>
       </c>
     </row>
@@ -11039,7 +11039,7 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -11073,7 +11073,7 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -11107,7 +11107,7 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -11124,12 +11124,12 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
           <t>214</t>
-        </is>
-      </c>
-      <c r="D316" t="inlineStr">
-        <is>
-          <t>215</t>
         </is>
       </c>
       <c r="E316" t="inlineStr"/>
@@ -11141,7 +11141,7 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -11158,12 +11158,12 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
+          <t>514</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
           <t>630</t>
-        </is>
-      </c>
-      <c r="D317" t="inlineStr">
-        <is>
-          <t>673</t>
         </is>
       </c>
       <c r="E317" t="inlineStr"/>
@@ -11175,7 +11175,7 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -11192,12 +11192,12 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
           <t>138</t>
-        </is>
-      </c>
-      <c r="D318" t="inlineStr">
-        <is>
-          <t>131</t>
         </is>
       </c>
       <c r="E318" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -11243,7 +11243,7 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -11277,7 +11277,7 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Jul/2</t>
+          <t>Aug/24</t>
         </is>
       </c>
     </row>
@@ -11311,7 +11311,7 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -11345,7 +11345,7 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -11379,7 +11379,7 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -11413,7 +11413,7 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Aug/24</t>
         </is>
       </c>
     </row>
@@ -11447,7 +11447,7 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -11481,7 +11481,7 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -11511,7 +11511,7 @@
       <c r="G327" t="inlineStr"/>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -11528,12 +11528,12 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>4.67</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>5.47</t>
+          <t>5.27</t>
         </is>
       </c>
       <c r="E328" t="inlineStr"/>
@@ -11545,7 +11545,7 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>Mar/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -11562,12 +11562,12 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
           <t>-0.52</t>
-        </is>
-      </c>
-      <c r="D329" t="inlineStr">
-        <is>
-          <t>5.47</t>
         </is>
       </c>
       <c r="E329" t="inlineStr"/>
@@ -11575,7 +11575,7 @@
       <c r="G329" t="inlineStr"/>
       <c r="H329" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -11592,12 +11592,12 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
           <t>-2707</t>
-        </is>
-      </c>
-      <c r="D330" t="inlineStr">
-        <is>
-          <t>878</t>
         </is>
       </c>
       <c r="E330" t="inlineStr"/>
@@ -11609,7 +11609,7 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -11626,12 +11626,12 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
           <t>78</t>
-        </is>
-      </c>
-      <c r="D331" t="inlineStr">
-        <is>
-          <t>80</t>
         </is>
       </c>
       <c r="E331" t="inlineStr"/>
@@ -11643,7 +11643,7 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -11660,12 +11660,12 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
           <t>-0.57</t>
-        </is>
-      </c>
-      <c r="D332" t="inlineStr">
-        <is>
-          <t>1.64</t>
         </is>
       </c>
       <c r="E332" t="inlineStr"/>
@@ -11673,7 +11673,7 @@
       <c r="G332" t="inlineStr"/>
       <c r="H332" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -11690,12 +11690,12 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>479</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>479</t>
         </is>
       </c>
       <c r="E333" t="inlineStr"/>
@@ -11703,7 +11703,7 @@
       <c r="G333" t="inlineStr"/>
       <c r="H333" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -11720,12 +11720,12 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>384642</t>
+          <t>387223</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>383882</t>
+          <t>385831</t>
         </is>
       </c>
       <c r="E334" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -11767,7 +11767,7 @@
       <c r="G335" t="inlineStr"/>
       <c r="H335" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -11797,7 +11797,7 @@
       <c r="G336" t="inlineStr"/>
       <c r="H336" t="inlineStr">
         <is>
-          <t>Apr/2</t>
+          <t>Apr/24</t>
         </is>
       </c>
     </row>
@@ -11827,7 +11827,7 @@
       <c r="G337" t="inlineStr"/>
       <c r="H337" t="inlineStr">
         <is>
-          <t>Apr/2</t>
+          <t>Apr/24</t>
         </is>
       </c>
     </row>
@@ -11844,12 +11844,12 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
           <t>0.32</t>
-        </is>
-      </c>
-      <c r="D338" t="inlineStr">
-        <is>
-          <t>-0.22</t>
         </is>
       </c>
       <c r="E338" t="inlineStr"/>
@@ -11857,7 +11857,7 @@
       <c r="G338" t="inlineStr"/>
       <c r="H338" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -11874,12 +11874,12 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
+          <t>-0.85</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
           <t>-1.46</t>
-        </is>
-      </c>
-      <c r="D339" t="inlineStr">
-        <is>
-          <t>-1.48</t>
         </is>
       </c>
       <c r="E339" t="inlineStr"/>
@@ -11887,7 +11887,7 @@
       <c r="G339" t="inlineStr"/>
       <c r="H339" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -11904,12 +11904,12 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
+          <t>-0.93</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
           <t>-0.28</t>
-        </is>
-      </c>
-      <c r="D340" t="inlineStr">
-        <is>
-          <t>-2.02</t>
         </is>
       </c>
       <c r="E340" t="inlineStr"/>
@@ -11917,7 +11917,7 @@
       <c r="G340" t="inlineStr"/>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -11947,7 +11947,7 @@
       <c r="G341" t="inlineStr"/>
       <c r="H341" t="inlineStr">
         <is>
-          <t>Apr/2</t>
+          <t>Apr/24</t>
         </is>
       </c>
     </row>
@@ -11977,7 +11977,7 @@
       <c r="G342" t="inlineStr"/>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Apr/2</t>
+          <t>Apr/24</t>
         </is>
       </c>
     </row>
@@ -11994,12 +11994,12 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
+          <t>1676</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
           <t>-605</t>
-        </is>
-      </c>
-      <c r="D343" t="inlineStr">
-        <is>
-          <t>913</t>
         </is>
       </c>
       <c r="E343" t="inlineStr"/>
@@ -12011,7 +12011,7 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -12028,12 +12028,12 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
+          <t>522</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
           <t>681</t>
-        </is>
-      </c>
-      <c r="D344" t="inlineStr">
-        <is>
-          <t>-346</t>
         </is>
       </c>
       <c r="E344" t="inlineStr"/>
@@ -12045,7 +12045,7 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -12062,12 +12062,12 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
           <t>-148</t>
-        </is>
-      </c>
-      <c r="D345" t="inlineStr">
-        <is>
-          <t>257</t>
         </is>
       </c>
       <c r="E345" t="inlineStr"/>
@@ -12079,7 +12079,7 @@
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -12096,12 +12096,12 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
+          <t>2947</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
           <t>-977</t>
-        </is>
-      </c>
-      <c r="D346" t="inlineStr">
-        <is>
-          <t>-1140</t>
         </is>
       </c>
       <c r="E346" t="inlineStr"/>
@@ -12113,7 +12113,7 @@
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -12130,12 +12130,12 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
           <t>-259</t>
-        </is>
-      </c>
-      <c r="D347" t="inlineStr">
-        <is>
-          <t>666</t>
         </is>
       </c>
       <c r="E347" t="inlineStr"/>
@@ -12147,7 +12147,7 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -12164,12 +12164,12 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
+          <t>335</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
           <t>571</t>
-        </is>
-      </c>
-      <c r="D348" t="inlineStr">
-        <is>
-          <t>-280</t>
         </is>
       </c>
       <c r="E348" t="inlineStr"/>
@@ -12181,7 +12181,7 @@
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -12198,12 +12198,12 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
           <t>-31</t>
-        </is>
-      </c>
-      <c r="D349" t="inlineStr">
-        <is>
-          <t>329</t>
         </is>
       </c>
       <c r="E349" t="inlineStr"/>
@@ -12215,7 +12215,7 @@
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -12253,7 +12253,7 @@
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/21</t>
         </is>
       </c>
     </row>
@@ -12287,7 +12287,7 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>Dec/1</t>
+          <t>Dec/19</t>
         </is>
       </c>
     </row>
@@ -12325,7 +12325,7 @@
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>Dec/1</t>
+          <t>Dec/19</t>
         </is>
       </c>
     </row>
@@ -12363,7 +12363,7 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/21</t>
         </is>
       </c>
     </row>

--- a/auto/new_data/5_經濟數據_united-states.xlsx
+++ b/auto/new_data/5_經濟數據_united-states.xlsx
@@ -488,12 +488,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>107</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>106</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -518,12 +518,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>5996</t>
+          <t>5990</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5973</t>
+          <t>5985</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -688,12 +688,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>2.6</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>2.4</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.5</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -705,7 +705,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2686,12 +2686,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>6.3</t>
+          <t>6.4</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>6.4</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
@@ -2703,7 +2703,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Aug/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -3362,12 +3362,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
+          <t>2.6</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
           <t>2.4</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>2.5</t>
         </is>
       </c>
       <c r="E87" t="inlineStr"/>
@@ -3379,7 +3379,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -3413,7 +3413,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -3430,7 +3430,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>316</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -3447,7 +3447,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -3464,12 +3464,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
+          <t>322</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
           <t>321</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>320</t>
         </is>
       </c>
       <c r="E90" t="inlineStr"/>
@@ -3481,7 +3481,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -3503,7 +3503,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="E91" t="inlineStr"/>
@@ -3515,7 +3515,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -3702,12 +3702,12 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
+          <t>2.1</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
           <t>2.3</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>2.1</t>
         </is>
       </c>
       <c r="E97" t="inlineStr"/>
@@ -3719,7 +3719,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -3753,7 +3753,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -3945,7 +3945,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>315</t>
         </is>
       </c>
       <c r="E104" t="inlineStr"/>
@@ -3957,7 +3957,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -3974,12 +3974,12 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
+          <t>-4.9</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
           <t>-6.8</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>-4</t>
         </is>
       </c>
       <c r="E105" t="inlineStr"/>
@@ -3991,7 +3991,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -4455,7 +4455,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>5.2</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="E119" t="inlineStr"/>
@@ -4467,7 +4467,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -4489,7 +4489,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="E120" t="inlineStr"/>
@@ -4501,7 +4501,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -4586,12 +4586,12 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
+          <t>2.3</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
           <t>2.4</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>2.3</t>
         </is>
       </c>
       <c r="E123" t="inlineStr"/>
@@ -4603,7 +4603,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -4625,7 +4625,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>337</t>
         </is>
       </c>
       <c r="E124" t="inlineStr"/>
@@ -4637,7 +4637,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -4693,7 +4693,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>270</t>
         </is>
       </c>
       <c r="E126" t="inlineStr"/>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -4756,7 +4756,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -4773,7 +4773,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -5130,12 +5130,12 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>4.83</t>
+          <t>4.58</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>4.83</t>
+          <t>4.58</t>
         </is>
       </c>
       <c r="E139" t="inlineStr"/>
@@ -5198,12 +5198,12 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
           <t>4.71</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>5.32</t>
         </is>
       </c>
       <c r="E141" t="inlineStr"/>
@@ -5215,7 +5215,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -5232,7 +5232,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>4.81</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -5543,7 +5543,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>108</t>
         </is>
       </c>
       <c r="E151" t="inlineStr"/>
@@ -5555,7 +5555,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Jun/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -5908,12 +5908,12 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>9682</t>
+          <t>8391</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>10762</t>
+          <t>9681</t>
         </is>
       </c>
       <c r="E162" t="inlineStr"/>
@@ -5925,7 +5925,7 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Aug/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -6142,12 +6142,12 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>64263</t>
+          <t>-257000</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>-380080</t>
+          <t>64000</t>
         </is>
       </c>
       <c r="E169" t="inlineStr"/>
@@ -6159,7 +6159,7 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -7116,12 +7116,12 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
+          <t>22762</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
           <t>22060</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>20316</t>
         </is>
       </c>
       <c r="E198" t="inlineStr"/>
@@ -7133,7 +7133,7 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Jun/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -7184,12 +7184,12 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
+          <t>93.7</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
           <t>91.5</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>91.2</t>
         </is>
       </c>
       <c r="E200" t="inlineStr"/>
@@ -7201,7 +7201,7 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -8000,12 +8000,12 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
+          <t>42.3</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
           <t>44.1</t>
-        </is>
-      </c>
-      <c r="D224" t="inlineStr">
-        <is>
-          <t>43.6</t>
         </is>
       </c>
       <c r="E224" t="inlineStr"/>
@@ -8017,7 +8017,7 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -8068,12 +8068,12 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
+          <t>42.6</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
           <t>43.9</t>
-        </is>
-      </c>
-      <c r="D226" t="inlineStr">
-        <is>
-          <t>50.3</t>
         </is>
       </c>
       <c r="E226" t="inlineStr"/>
@@ -8085,7 +8085,7 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -8170,12 +8170,12 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
+          <t>46.2</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
           <t>49.8</t>
-        </is>
-      </c>
-      <c r="D229" t="inlineStr">
-        <is>
-          <t>44.8</t>
         </is>
       </c>
       <c r="E229" t="inlineStr"/>
@@ -8187,7 +8187,7 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -8204,12 +8204,12 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
           <t>52.2</t>
-        </is>
-      </c>
-      <c r="D230" t="inlineStr">
-        <is>
-          <t>50.5</t>
         </is>
       </c>
       <c r="E230" t="inlineStr"/>
@@ -8221,7 +8221,7 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -9734,12 +9734,12 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
+          <t>12556</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
           <t>12485</t>
-        </is>
-      </c>
-      <c r="D275" t="inlineStr">
-        <is>
-          <t>12470</t>
         </is>
       </c>
       <c r="E275" t="inlineStr"/>
@@ -9751,7 +9751,7 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -9773,7 +9773,7 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E276" t="inlineStr"/>
@@ -9785,7 +9785,7 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -9802,12 +9802,12 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
+          <t>53.2</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
           <t>46.9</t>
-        </is>
-      </c>
-      <c r="D277" t="inlineStr">
-        <is>
-          <t>46.1</t>
         </is>
       </c>
       <c r="E277" t="inlineStr"/>
@@ -9819,7 +9819,7 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -9836,12 +9836,12 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
           <t>6</t>
-        </is>
-      </c>
-      <c r="D278" t="inlineStr">
-        <is>
-          <t>5.6</t>
         </is>
       </c>
       <c r="E278" t="inlineStr"/>
@@ -9870,12 +9870,12 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
+          <t>601</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
           <t>599</t>
-        </is>
-      </c>
-      <c r="D279" t="inlineStr">
-        <is>
-          <t>597</t>
         </is>
       </c>
       <c r="E279" t="inlineStr"/>
@@ -9887,7 +9887,7 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>Jun/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -9904,12 +9904,12 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
           <t>1.63</t>
-        </is>
-      </c>
-      <c r="D280" t="inlineStr">
-        <is>
-          <t>1.62</t>
         </is>
       </c>
       <c r="E280" t="inlineStr"/>
@@ -9921,7 +9921,7 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>Jun/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -9938,12 +9938,12 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
           <t>1.14</t>
-        </is>
-      </c>
-      <c r="D281" t="inlineStr">
-        <is>
-          <t>1.12</t>
         </is>
       </c>
       <c r="E281" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>Jun/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -9972,12 +9972,12 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
+          <t>12.59</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
           <t>12.52</t>
-        </is>
-      </c>
-      <c r="D282" t="inlineStr">
-        <is>
-          <t>12.44</t>
         </is>
       </c>
       <c r="E282" t="inlineStr"/>
@@ -9989,7 +9989,7 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>Jun/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -10006,12 +10006,12 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
           <t>1.59</t>
-        </is>
-      </c>
-      <c r="D283" t="inlineStr">
-        <is>
-          <t>1.6</t>
         </is>
       </c>
       <c r="E283" t="inlineStr"/>
@@ -10023,7 +10023,7 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>Jun/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -10040,12 +10040,12 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
+          <t>17.9</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
           <t>17.8</t>
-        </is>
-      </c>
-      <c r="D284" t="inlineStr">
-        <is>
-          <t>17.7</t>
         </is>
       </c>
       <c r="E284" t="inlineStr"/>
@@ -10057,7 +10057,7 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>Jun/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -10614,12 +10614,12 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
           <t>6.81</t>
-        </is>
-      </c>
-      <c r="D301" t="inlineStr">
-        <is>
-          <t>6.73</t>
         </is>
       </c>
       <c r="E301" t="inlineStr"/>
@@ -10648,12 +10648,12 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
           <t>-10.8</t>
-        </is>
-      </c>
-      <c r="D302" t="inlineStr">
-        <is>
-          <t>-0.1</t>
         </is>
       </c>
       <c r="E302" t="inlineStr"/>
@@ -11124,12 +11124,12 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
           <t>191</t>
-        </is>
-      </c>
-      <c r="D316" t="inlineStr">
-        <is>
-          <t>214</t>
         </is>
       </c>
       <c r="E316" t="inlineStr"/>
@@ -11158,12 +11158,12 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
+          <t>506</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
           <t>514</t>
-        </is>
-      </c>
-      <c r="D317" t="inlineStr">
-        <is>
-          <t>630</t>
         </is>
       </c>
       <c r="E317" t="inlineStr"/>
@@ -11192,12 +11192,12 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
           <t>131</t>
-        </is>
-      </c>
-      <c r="D318" t="inlineStr">
-        <is>
-          <t>138</t>
         </is>
       </c>
       <c r="E318" t="inlineStr"/>
@@ -11226,12 +11226,12 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
+          <t>448</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
           <t>374</t>
-        </is>
-      </c>
-      <c r="D319" t="inlineStr">
-        <is>
-          <t>403</t>
         </is>
       </c>
       <c r="E319" t="inlineStr"/>
@@ -11243,7 +11243,7 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>Jun/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -11660,12 +11660,12 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
+          <t>-0.78</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
           <t>3.13</t>
-        </is>
-      </c>
-      <c r="D332" t="inlineStr">
-        <is>
-          <t>-0.57</t>
         </is>
       </c>
       <c r="E332" t="inlineStr"/>
@@ -11844,12 +11844,12 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
+          <t>-1.86</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
           <t>1.72</t>
-        </is>
-      </c>
-      <c r="D338" t="inlineStr">
-        <is>
-          <t>0.32</t>
         </is>
       </c>
       <c r="E338" t="inlineStr"/>
@@ -11874,12 +11874,12 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
           <t>-0.85</t>
-        </is>
-      </c>
-      <c r="D339" t="inlineStr">
-        <is>
-          <t>-1.46</t>
         </is>
       </c>
       <c r="E339" t="inlineStr"/>
@@ -11904,12 +11904,12 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
           <t>-0.93</t>
-        </is>
-      </c>
-      <c r="D340" t="inlineStr">
-        <is>
-          <t>-0.28</t>
         </is>
       </c>
       <c r="E340" t="inlineStr"/>

--- a/auto/new_data/5_經濟數據_united-states.xlsx
+++ b/auto/new_data/5_經濟數據_united-states.xlsx
@@ -488,7 +488,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>106</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -501,7 +501,7 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Nov/24</t>
+          <t>20/Nov/24 13:23:58</t>
         </is>
       </c>
     </row>
@@ -518,12 +518,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>5990</t>
+          <t>5926</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5985</t>
+          <t>5917</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -535,7 +535,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Nov/24</t>
+          <t>20/Nov/24 13:23:58</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -1147,7 +1147,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -1164,12 +1164,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>1416</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>1425</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>1470</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -1181,7 +1181,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -1640,12 +1640,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>1.65</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>2.11</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -2116,12 +2116,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
           <t>221</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>218</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -2150,12 +2150,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>1892</t>
+          <t>1873</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>1853</t>
+          <t>1884</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -2626,12 +2626,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>30.33</t>
+          <t>30.48</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>30.25</t>
+          <t>30.36</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
@@ -2639,7 +2639,7 @@
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2720,12 +2720,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>28.1</t>
+          <t>28.19</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>27.98</t>
+          <t>28.12</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
@@ -2733,7 +2733,7 @@
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -3294,12 +3294,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
+          <t>221</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
           <t>227</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>237</t>
         </is>
       </c>
       <c r="E85" t="inlineStr"/>
@@ -3566,7 +3566,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>146</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -3583,7 +3583,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -3600,7 +3600,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -3617,7 +3617,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -3872,12 +3872,12 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
           <t>0.2</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>0.3</t>
         </is>
       </c>
       <c r="E102" t="inlineStr"/>
@@ -3889,7 +3889,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -3906,12 +3906,12 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="E103" t="inlineStr"/>
@@ -3923,7 +3923,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -4008,12 +4008,12 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>-0.7</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>-0.9</t>
+          <t>-0.6</t>
         </is>
       </c>
       <c r="E106" t="inlineStr"/>
@@ -4025,7 +4025,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -4042,12 +4042,12 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>-2.1</t>
+          <t>-0.1</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>-0.7</t>
+          <t>-1.9</t>
         </is>
       </c>
       <c r="E107" t="inlineStr"/>
@@ -4059,7 +4059,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -4076,12 +4076,12 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
           <t>-0.4</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>-0.2</t>
         </is>
       </c>
       <c r="E108" t="inlineStr"/>
@@ -4093,7 +4093,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -4110,12 +4110,12 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
           <t>-0.1</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>0.8</t>
         </is>
       </c>
       <c r="E109" t="inlineStr"/>
@@ -4127,7 +4127,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -4348,12 +4348,12 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
           <t>0.1</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>0.2</t>
         </is>
       </c>
       <c r="E116" t="inlineStr"/>
@@ -4365,7 +4365,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -4382,7 +4382,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -4399,7 +4399,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -4416,12 +4416,12 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="E118" t="inlineStr"/>
@@ -4433,7 +4433,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -4557,7 +4557,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>144</t>
         </is>
       </c>
       <c r="E122" t="inlineStr"/>
@@ -4569,7 +4569,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -4722,12 +4722,12 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
+          <t>3.2</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
           <t>3.17</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>3.22</t>
         </is>
       </c>
       <c r="E127" t="inlineStr"/>
@@ -4739,7 +4739,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -4994,12 +4994,12 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
+          <t>23547</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
           <t>23585</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>23508</t>
         </is>
       </c>
       <c r="E135" t="inlineStr"/>
@@ -5011,7 +5011,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -5028,12 +5028,12 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
+          <t>6967108</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
           <t>6994299</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>7013490</t>
         </is>
       </c>
       <c r="E136" t="inlineStr"/>
@@ -5181,7 +5181,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -5232,12 +5232,12 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>4.82</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="E142" t="inlineStr"/>
@@ -5266,12 +5266,12 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
+          <t>77000</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
           <t>19200</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>55900</t>
         </is>
       </c>
       <c r="E143" t="inlineStr"/>
@@ -5283,7 +5283,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Aug/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -5572,12 +5572,12 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>79200</t>
+          <t>398400</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>159100</t>
+          <t>75900</t>
         </is>
       </c>
       <c r="E152" t="inlineStr"/>
@@ -5589,7 +5589,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Aug/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -5640,12 +5640,12 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>111400</t>
+          <t>216100</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>137900</t>
+          <t>108800</t>
         </is>
       </c>
       <c r="E154" t="inlineStr"/>
@@ -5657,7 +5657,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Aug/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5840,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>13500</t>
+          <t>13400</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -6142,12 +6142,12 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>-257000</t>
+          <t>-257450</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>64000</t>
+          <t>64263</t>
         </is>
       </c>
       <c r="E169" t="inlineStr"/>
@@ -6210,12 +6210,12 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
+          <t>326770</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
           <t>527620</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>306540</t>
         </is>
       </c>
       <c r="E171" t="inlineStr"/>
@@ -6227,7 +6227,7 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -6278,12 +6278,12 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
+          <t>584221</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
           <t>463357</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>686620</t>
         </is>
       </c>
       <c r="E173" t="inlineStr"/>
@@ -6295,7 +6295,7 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -6674,12 +6674,12 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>-0.6</t>
+          <t>-0.3</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>-0.2</t>
+          <t>-0.7</t>
         </is>
       </c>
       <c r="E185" t="inlineStr"/>
@@ -6691,7 +6691,7 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -6713,7 +6713,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>-0.5</t>
         </is>
       </c>
       <c r="E186" t="inlineStr"/>
@@ -6725,7 +6725,7 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -6742,12 +6742,12 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>-0.5</t>
+          <t>-0.3</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-0.6</t>
         </is>
       </c>
       <c r="E187" t="inlineStr"/>
@@ -6759,7 +6759,7 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -6776,12 +6776,12 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>77.5</t>
+          <t>77.1</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>77.8</t>
+          <t>77.4</t>
         </is>
       </c>
       <c r="E188" t="inlineStr"/>
@@ -6793,7 +6793,7 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -7014,7 +7014,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -7031,7 +7031,7 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Aug/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -7286,12 +7286,12 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
+          <t>31.2</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
           <t>-11.9</t>
-        </is>
-      </c>
-      <c r="D203" t="inlineStr">
-        <is>
-          <t>11.5</t>
         </is>
       </c>
       <c r="E203" t="inlineStr"/>
@@ -7303,7 +7303,7 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -7422,12 +7422,12 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>10.82</t>
+          <t>10.26</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>11.07</t>
+          <t>10.86</t>
         </is>
       </c>
       <c r="E207" t="inlineStr"/>
@@ -7439,7 +7439,7 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -8544,12 +8544,12 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>-0.4</t>
+          <t>-0.5</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>-0.3</t>
         </is>
       </c>
       <c r="E240" t="inlineStr"/>
@@ -8561,7 +8561,7 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -8918,12 +8918,12 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="E251" t="inlineStr"/>
@@ -9037,7 +9037,7 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>20/Nov/24 13:23:58</t>
         </is>
       </c>
     </row>
@@ -9071,7 +9071,7 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>20/Nov/24 13:23:58</t>
         </is>
       </c>
     </row>
@@ -9105,7 +9105,7 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>20/Nov/24 13:23:58</t>
         </is>
       </c>
     </row>
@@ -9326,12 +9326,12 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>-2.2</t>
+          <t>-1.5</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>-0.9</t>
+          <t>-2.5</t>
         </is>
       </c>
       <c r="E263" t="inlineStr"/>
@@ -9343,7 +9343,7 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -9433,7 +9433,7 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="E266" t="inlineStr"/>
@@ -9445,7 +9445,7 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -9462,12 +9462,12 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E267" t="inlineStr"/>
@@ -9479,7 +9479,7 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -9496,12 +9496,12 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E268" t="inlineStr"/>
@@ -9513,7 +9513,7 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -9836,12 +9836,12 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
+          <t>5.1</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
           <t>4.8</t>
-        </is>
-      </c>
-      <c r="D278" t="inlineStr">
-        <is>
-          <t>6</t>
         </is>
       </c>
       <c r="E278" t="inlineStr"/>
@@ -10142,12 +10142,12 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="E287" t="inlineStr"/>
@@ -10159,7 +10159,7 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -10342,12 +10342,12 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
+          <t>1416</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
           <t>1425</t>
-        </is>
-      </c>
-      <c r="D293" t="inlineStr">
-        <is>
-          <t>1470</t>
         </is>
       </c>
       <c r="E293" t="inlineStr"/>
@@ -10359,7 +10359,7 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -10376,12 +10376,12 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>1354</t>
+          <t>1311</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>1361</t>
+          <t>1353</t>
         </is>
       </c>
       <c r="E294" t="inlineStr"/>
@@ -10393,7 +10393,7 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -10580,12 +10580,12 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
           <t>43</t>
-        </is>
-      </c>
-      <c r="D300" t="inlineStr">
-        <is>
-          <t>41</t>
         </is>
       </c>
       <c r="E300" t="inlineStr"/>
@@ -10597,7 +10597,7 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -10682,12 +10682,12 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
           <t>6</t>
-        </is>
-      </c>
-      <c r="D303" t="inlineStr">
-        <is>
-          <t>5.99</t>
         </is>
       </c>
       <c r="E303" t="inlineStr"/>
@@ -10716,12 +10716,12 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
           <t>6.79</t>
-        </is>
-      </c>
-      <c r="D304" t="inlineStr">
-        <is>
-          <t>6.72</t>
         </is>
       </c>
       <c r="E304" t="inlineStr"/>
@@ -10818,12 +10818,12 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
+          <t>-0.6</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
           <t>-3.1</t>
-        </is>
-      </c>
-      <c r="D307" t="inlineStr">
-        <is>
-          <t>4.6</t>
         </is>
       </c>
       <c r="E307" t="inlineStr"/>
@@ -10835,7 +10835,7 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -11022,12 +11022,12 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>-0.5</t>
+          <t>-3.1</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>7.8</t>
+          <t>-1.9</t>
         </is>
       </c>
       <c r="E313" t="inlineStr"/>
@@ -11039,7 +11039,7 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -11056,12 +11056,12 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>326</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>297</t>
         </is>
       </c>
       <c r="E314" t="inlineStr"/>
@@ -11073,7 +11073,7 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -11090,12 +11090,12 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>1027</t>
+          <t>970</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>1042</t>
         </is>
       </c>
       <c r="E315" t="inlineStr"/>
@@ -11107,7 +11107,7 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -11562,12 +11562,12 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
           <t>2.15</t>
-        </is>
-      </c>
-      <c r="D329" t="inlineStr">
-        <is>
-          <t>-0.52</t>
         </is>
       </c>
       <c r="E329" t="inlineStr"/>
@@ -11575,7 +11575,7 @@
       <c r="G329" t="inlineStr"/>
       <c r="H329" t="inlineStr">
         <is>
-          <t>Nov/24</t>
+          <t>20/Nov/24 13:23:58</t>
         </is>
       </c>
     </row>
@@ -11592,12 +11592,12 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
+          <t>-4407</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
           <t>412</t>
-        </is>
-      </c>
-      <c r="D330" t="inlineStr">
-        <is>
-          <t>-2707</t>
         </is>
       </c>
       <c r="E330" t="inlineStr"/>
@@ -11609,7 +11609,7 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>Nov/24</t>
+          <t>20/Nov/24 13:23:58</t>
         </is>
       </c>
     </row>
@@ -11626,12 +11626,12 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
           <t>69</t>
-        </is>
-      </c>
-      <c r="D331" t="inlineStr">
-        <is>
-          <t>78</t>
         </is>
       </c>
       <c r="E331" t="inlineStr"/>
@@ -11643,7 +11643,7 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>Nov/24</t>
+          <t>20/Nov/24 13:23:58</t>
         </is>
       </c>
     </row>
@@ -11660,12 +11660,12 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
           <t>-0.78</t>
-        </is>
-      </c>
-      <c r="D332" t="inlineStr">
-        <is>
-          <t>3.13</t>
         </is>
       </c>
       <c r="E332" t="inlineStr"/>
@@ -11673,7 +11673,7 @@
       <c r="G332" t="inlineStr"/>
       <c r="H332" t="inlineStr">
         <is>
-          <t>Nov/24</t>
+          <t>20/Nov/24 13:23:58</t>
         </is>
       </c>
     </row>
@@ -11690,7 +11690,7 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>479</t>
+          <t>478</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
@@ -11720,12 +11720,12 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
+          <t>387790</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
           <t>387223</t>
-        </is>
-      </c>
-      <c r="D334" t="inlineStr">
-        <is>
-          <t>385831</t>
         </is>
       </c>
       <c r="E334" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>Nov/24</t>
+          <t>20/Nov/24 13:23:58</t>
         </is>
       </c>
     </row>
@@ -11754,7 +11754,7 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>584</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
@@ -11844,12 +11844,12 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
+          <t>-0.29</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
           <t>-1.86</t>
-        </is>
-      </c>
-      <c r="D338" t="inlineStr">
-        <is>
-          <t>1.72</t>
         </is>
       </c>
       <c r="E338" t="inlineStr"/>
@@ -11874,12 +11874,12 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
+          <t>-0.69</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
           <t>1.14</t>
-        </is>
-      </c>
-      <c r="D339" t="inlineStr">
-        <is>
-          <t>-0.85</t>
         </is>
       </c>
       <c r="E339" t="inlineStr"/>
@@ -11887,7 +11887,7 @@
       <c r="G339" t="inlineStr"/>
       <c r="H339" t="inlineStr">
         <is>
-          <t>Nov/24</t>
+          <t>20/Nov/24 13:23:58</t>
         </is>
       </c>
     </row>
@@ -11904,12 +11904,12 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
+          <t>-2.48</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
           <t>0.31</t>
-        </is>
-      </c>
-      <c r="D340" t="inlineStr">
-        <is>
-          <t>-0.93</t>
         </is>
       </c>
       <c r="E340" t="inlineStr"/>
@@ -11917,7 +11917,7 @@
       <c r="G340" t="inlineStr"/>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Nov/24</t>
+          <t>20/Nov/24 13:23:58</t>
         </is>
       </c>
     </row>
@@ -11994,12 +11994,12 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
+          <t>-321</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
           <t>1676</t>
-        </is>
-      </c>
-      <c r="D343" t="inlineStr">
-        <is>
-          <t>-605</t>
         </is>
       </c>
       <c r="E343" t="inlineStr"/>
@@ -12028,12 +12028,12 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
+          <t>-688</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
           <t>522</t>
-        </is>
-      </c>
-      <c r="D344" t="inlineStr">
-        <is>
-          <t>681</t>
         </is>
       </c>
       <c r="E344" t="inlineStr"/>
@@ -12045,7 +12045,7 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>Nov/24</t>
+          <t>20/Nov/24 13:23:58</t>
         </is>
       </c>
     </row>
@@ -12062,12 +12062,12 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
+          <t>-127</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
           <t>233</t>
-        </is>
-      </c>
-      <c r="D345" t="inlineStr">
-        <is>
-          <t>-148</t>
         </is>
       </c>
       <c r="E345" t="inlineStr"/>
@@ -12096,12 +12096,12 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
+          <t>-1394</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
           <t>2947</t>
-        </is>
-      </c>
-      <c r="D346" t="inlineStr">
-        <is>
-          <t>-977</t>
         </is>
       </c>
       <c r="E346" t="inlineStr"/>
@@ -12113,7 +12113,7 @@
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>Nov/24</t>
+          <t>20/Nov/24 13:23:58</t>
         </is>
       </c>
     </row>
@@ -12130,12 +12130,12 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
+          <t>559</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
           <t>13</t>
-        </is>
-      </c>
-      <c r="D347" t="inlineStr">
-        <is>
-          <t>-259</t>
         </is>
       </c>
       <c r="E347" t="inlineStr"/>
@@ -12164,12 +12164,12 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
+          <t>-1060</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
           <t>335</t>
-        </is>
-      </c>
-      <c r="D348" t="inlineStr">
-        <is>
-          <t>571</t>
         </is>
       </c>
       <c r="E348" t="inlineStr"/>
@@ -12181,7 +12181,7 @@
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>Nov/24</t>
+          <t>20/Nov/24 13:23:58</t>
         </is>
       </c>
     </row>
@@ -12198,12 +12198,12 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
           <t>281</t>
-        </is>
-      </c>
-      <c r="D349" t="inlineStr">
-        <is>
-          <t>-31</t>
         </is>
       </c>
       <c r="E349" t="inlineStr"/>

--- a/auto/new_data/5_經濟數據_united-states.xlsx
+++ b/auto/new_data/5_經濟數據_united-states.xlsx
@@ -493,7 +493,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>107</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -501,7 +501,7 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>20/Nov/24 13:23:58</t>
+          <t>21/Nov/24 14:23:36</t>
         </is>
       </c>
     </row>
@@ -518,7 +518,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>5926</t>
+          <t>5905</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>20/Nov/24 13:23:58</t>
+          <t>21/Nov/24 14:23:36</t>
         </is>
       </c>
     </row>
@@ -5096,12 +5096,12 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>2781</t>
+          <t>2787</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>2768</t>
+          <t>2780</t>
         </is>
       </c>
       <c r="E138" t="inlineStr"/>
@@ -5113,7 +5113,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -7745,7 +7745,7 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -9037,7 +9037,7 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>20/Nov/24 13:23:58</t>
+          <t>21/Nov/24 14:23:36</t>
         </is>
       </c>
     </row>
@@ -9071,7 +9071,7 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>20/Nov/24 13:23:58</t>
+          <t>21/Nov/24 14:23:36</t>
         </is>
       </c>
     </row>
@@ -9105,7 +9105,7 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>20/Nov/24 13:23:58</t>
+          <t>21/Nov/24 14:23:36</t>
         </is>
       </c>
     </row>
@@ -10614,12 +10614,12 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
+          <t>6.9</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
           <t>6.86</t>
-        </is>
-      </c>
-      <c r="D301" t="inlineStr">
-        <is>
-          <t>6.81</t>
         </is>
       </c>
       <c r="E301" t="inlineStr"/>
@@ -10648,12 +10648,12 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
+          <t>1.7</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
           <t>0.5</t>
-        </is>
-      </c>
-      <c r="D302" t="inlineStr">
-        <is>
-          <t>-10.8</t>
         </is>
       </c>
       <c r="E302" t="inlineStr"/>
@@ -11124,12 +11124,12 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
           <t>192</t>
-        </is>
-      </c>
-      <c r="D316" t="inlineStr">
-        <is>
-          <t>191</t>
         </is>
       </c>
       <c r="E316" t="inlineStr"/>
@@ -11158,12 +11158,12 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
+          <t>515</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
           <t>506</t>
-        </is>
-      </c>
-      <c r="D317" t="inlineStr">
-        <is>
-          <t>514</t>
         </is>
       </c>
       <c r="E317" t="inlineStr"/>
@@ -11192,12 +11192,12 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
           <t>133</t>
-        </is>
-      </c>
-      <c r="D318" t="inlineStr">
-        <is>
-          <t>131</t>
         </is>
       </c>
       <c r="E318" t="inlineStr"/>
@@ -11562,12 +11562,12 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
           <t>2.09</t>
-        </is>
-      </c>
-      <c r="D329" t="inlineStr">
-        <is>
-          <t>2.15</t>
         </is>
       </c>
       <c r="E329" t="inlineStr"/>
@@ -11575,7 +11575,7 @@
       <c r="G329" t="inlineStr"/>
       <c r="H329" t="inlineStr">
         <is>
-          <t>20/Nov/24 13:23:58</t>
+          <t>21/Nov/24 14:23:36</t>
         </is>
       </c>
     </row>
@@ -11592,12 +11592,12 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
+          <t>2054</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
           <t>-4407</t>
-        </is>
-      </c>
-      <c r="D330" t="inlineStr">
-        <is>
-          <t>412</t>
         </is>
       </c>
       <c r="E330" t="inlineStr"/>
@@ -11609,7 +11609,7 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>20/Nov/24 13:23:58</t>
+          <t>21/Nov/24 14:23:36</t>
         </is>
       </c>
     </row>
@@ -11643,7 +11643,7 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>20/Nov/24 13:23:58</t>
+          <t>21/Nov/24 14:23:36</t>
         </is>
       </c>
     </row>
@@ -11673,7 +11673,7 @@
       <c r="G332" t="inlineStr"/>
       <c r="H332" t="inlineStr">
         <is>
-          <t>20/Nov/24 13:23:58</t>
+          <t>21/Nov/24 14:23:36</t>
         </is>
       </c>
     </row>
@@ -11737,7 +11737,7 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>20/Nov/24 13:23:58</t>
+          <t>21/Nov/24 14:23:36</t>
         </is>
       </c>
     </row>
@@ -11887,7 +11887,7 @@
       <c r="G339" t="inlineStr"/>
       <c r="H339" t="inlineStr">
         <is>
-          <t>20/Nov/24 13:23:58</t>
+          <t>21/Nov/24 14:23:36</t>
         </is>
       </c>
     </row>
@@ -11917,7 +11917,7 @@
       <c r="G340" t="inlineStr"/>
       <c r="H340" t="inlineStr">
         <is>
-          <t>20/Nov/24 13:23:58</t>
+          <t>21/Nov/24 14:23:36</t>
         </is>
       </c>
     </row>
@@ -11994,12 +11994,12 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
           <t>-321</t>
-        </is>
-      </c>
-      <c r="D343" t="inlineStr">
-        <is>
-          <t>1676</t>
         </is>
       </c>
       <c r="E343" t="inlineStr"/>
@@ -12028,12 +12028,12 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
+          <t>-140</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
           <t>-688</t>
-        </is>
-      </c>
-      <c r="D344" t="inlineStr">
-        <is>
-          <t>522</t>
         </is>
       </c>
       <c r="E344" t="inlineStr"/>
@@ -12045,7 +12045,7 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>20/Nov/24 13:23:58</t>
+          <t>21/Nov/24 14:23:36</t>
         </is>
       </c>
     </row>
@@ -12062,12 +12062,12 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
+          <t>-132</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
           <t>-127</t>
-        </is>
-      </c>
-      <c r="D345" t="inlineStr">
-        <is>
-          <t>233</t>
         </is>
       </c>
       <c r="E345" t="inlineStr"/>
@@ -12096,12 +12096,12 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
+          <t>-114</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
           <t>-1394</t>
-        </is>
-      </c>
-      <c r="D346" t="inlineStr">
-        <is>
-          <t>2947</t>
         </is>
       </c>
       <c r="E346" t="inlineStr"/>
@@ -12113,7 +12113,7 @@
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>20/Nov/24 13:23:58</t>
+          <t>21/Nov/24 14:23:36</t>
         </is>
       </c>
     </row>
@@ -12130,12 +12130,12 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
+          <t>-980</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
           <t>559</t>
-        </is>
-      </c>
-      <c r="D347" t="inlineStr">
-        <is>
-          <t>13</t>
         </is>
       </c>
       <c r="E347" t="inlineStr"/>
@@ -12164,12 +12164,12 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
+          <t>342</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
           <t>-1060</t>
-        </is>
-      </c>
-      <c r="D348" t="inlineStr">
-        <is>
-          <t>335</t>
         </is>
       </c>
       <c r="E348" t="inlineStr"/>
@@ -12181,7 +12181,7 @@
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>20/Nov/24 13:23:58</t>
+          <t>21/Nov/24 14:23:36</t>
         </is>
       </c>
     </row>
@@ -12198,12 +12198,12 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
+          <t>-281</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
           <t>175</t>
-        </is>
-      </c>
-      <c r="D349" t="inlineStr">
-        <is>
-          <t>281</t>
         </is>
       </c>
       <c r="E349" t="inlineStr"/>

--- a/auto/new_data/5_經濟數據_united-states.xlsx
+++ b/auto/new_data/5_經濟數據_united-states.xlsx
@@ -488,12 +488,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>108</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>108</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -501,7 +501,7 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>21/Nov/24 14:23:36</t>
+          <t>26/Dec/24 10:02:23</t>
         </is>
       </c>
     </row>
@@ -518,12 +518,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>5905</t>
+          <t>6036</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5917</t>
+          <t>6040</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -535,7 +535,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>21/Nov/24 14:23:36</t>
+          <t>26/Dec/24 10:02:23</t>
         </is>
       </c>
     </row>
@@ -552,7 +552,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -620,7 +620,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -637,7 +637,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -654,12 +654,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>227</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>36</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -671,7 +671,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -688,12 +688,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>2.7</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>2.6</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.4</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -705,7 +705,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -722,7 +722,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -756,12 +756,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>4.75</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>5</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -773,7 +773,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Nov/24</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -790,12 +790,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-84.36</t>
+          <t>-73.84</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-70.79</t>
+          <t>-83.8</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -807,7 +807,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -824,12 +824,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-267</t>
+          <t>-311</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>-241</t>
+          <t>-275</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -841,7 +841,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Jun/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -960,12 +960,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>48.4</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>46.5</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>47.2</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -977,7 +977,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -994,12 +994,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>48.5</t>
+          <t>48.3</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>47.3</t>
+          <t>49.7</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -1011,7 +1011,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -1028,12 +1028,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>52.1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>56</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>54.9</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -1062,12 +1062,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>58.5</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>55.2</t>
+          <t>56.1</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -1079,7 +1079,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -1096,12 +1096,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>74</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>70.5</t>
+          <t>71.8</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -1113,7 +1113,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Nov/24</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -1130,12 +1130,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -1147,7 +1147,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -1164,12 +1164,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1416</t>
+          <t>1493</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1425</t>
+          <t>1419</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -1181,7 +1181,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1368,7 +1368,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>23386</t>
+          <t>23400</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1402,12 +1402,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>23428</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>23289</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>23136</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -1419,7 +1419,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Jun/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -1436,7 +1436,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>4270</t>
+          <t>4278</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1640,12 +1640,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -1657,7 +1657,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Nov/24</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -1674,12 +1674,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>207</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>196</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -1691,7 +1691,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Jun/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -1713,7 +1713,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>853</t>
+          <t>864</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -1725,7 +1725,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Jun/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -1742,12 +1742,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>2403</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>2384</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>2337</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
@@ -1759,7 +1759,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Jun/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -1776,12 +1776,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>338</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>337</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>341</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -1793,7 +1793,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Jun/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -1810,12 +1810,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>2636</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t>2622</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>2617</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
@@ -1827,7 +1827,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Jun/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -1844,12 +1844,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>16949</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>16801</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>16700</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Jun/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -1878,12 +1878,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>721</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>714</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>713</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Jun/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -1912,12 +1912,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>341</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t>342</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>338</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
@@ -1929,7 +1929,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Jun/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -1946,7 +1946,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1963,7 +1963,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -1980,12 +1980,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>227</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>36</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -1997,7 +1997,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -2014,12 +2014,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>38</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -2048,12 +2048,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>-28</t>
+          <t>194</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -2065,7 +2065,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -2082,12 +2082,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>-46</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>-6</t>
+          <t>-48</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -2099,7 +2099,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -2116,12 +2116,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>220</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>242</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -2133,7 +2133,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Nov/24</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -2150,12 +2150,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>1873</t>
+          <t>1874</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>1884</t>
+          <t>1879</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Nov/24</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -2184,12 +2184,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>146</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>184</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -2201,7 +2201,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -2218,12 +2218,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
+          <t>161141</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
           <t>161496</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>161864</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -2235,7 +2235,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -2252,12 +2252,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>7145</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
           <t>6984</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>6834</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -2269,7 +2269,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -2291,7 +2291,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
@@ -2303,7 +2303,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -2325,7 +2325,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>34.2</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
@@ -2337,7 +2337,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -2354,12 +2354,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>62.5</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
           <t>62.6</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>62.7</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
@@ -2371,7 +2371,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -2388,12 +2388,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
           <t>0.95</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>0.97</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
@@ -2405,7 +2405,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -2422,12 +2422,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>9.4</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
           <t>9.5</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>9.2</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
@@ -2439,7 +2439,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -2524,12 +2524,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>7418</t>
+          <t>8167</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>7939</t>
+          <t>7239</t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
@@ -2541,7 +2541,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2558,12 +2558,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>7443</t>
+          <t>7744</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>7861</t>
+          <t>7372</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
@@ -2575,7 +2575,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2592,12 +2592,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
+          <t>57727</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
           <t>55597</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>72821</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
@@ -2609,7 +2609,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -2626,12 +2626,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
+          <t>30.57</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
           <t>30.48</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>30.36</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
@@ -2639,7 +2639,7 @@
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -2686,12 +2686,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>6.4</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>5.6</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
@@ -2703,7 +2703,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -2720,12 +2720,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>28.19</t>
+          <t>28.3</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>28.12</t>
+          <t>28.18</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
@@ -2733,7 +2733,7 @@
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -2891,7 +2891,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
@@ -2903,7 +2903,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -2988,12 +2988,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
+          <t>11621</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
           <t>266743</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>403893</t>
         </is>
       </c>
       <c r="E76" t="inlineStr"/>
@@ -3005,7 +3005,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -3022,12 +3022,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>1833</t>
+          <t>1633</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>1668</t>
+          <t>1802</t>
         </is>
       </c>
       <c r="E77" t="inlineStr"/>
@@ -3039,7 +3039,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -3056,12 +3056,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>3071</t>
+          <t>3326</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>3178</t>
+          <t>3098</t>
         </is>
       </c>
       <c r="E78" t="inlineStr"/>
@@ -3073,7 +3073,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -3090,12 +3090,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
+          <t>2.1</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
           <t>1.9</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
       <c r="E79" t="inlineStr"/>
@@ -3107,7 +3107,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -3158,7 +3158,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>7.7</t>
+          <t>7.8</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3175,7 +3175,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -3192,12 +3192,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>-1.1</t>
         </is>
       </c>
       <c r="E82" t="inlineStr"/>
@@ -3226,12 +3226,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
+          <t>59.8</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
           <t>60</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>60.2</t>
         </is>
       </c>
       <c r="E83" t="inlineStr"/>
@@ -3243,7 +3243,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -3260,12 +3260,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
+          <t>133385</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
           <t>133496</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>133660</t>
         </is>
       </c>
       <c r="E84" t="inlineStr"/>
@@ -3277,7 +3277,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -3294,12 +3294,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>226</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>224</t>
         </is>
       </c>
       <c r="E85" t="inlineStr"/>
@@ -3311,7 +3311,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Nov/24</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -3328,12 +3328,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
+          <t>27666</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
           <t>27943</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>28161</t>
         </is>
       </c>
       <c r="E86" t="inlineStr"/>
@@ -3345,7 +3345,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -3362,12 +3362,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
+          <t>2.7</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
           <t>2.6</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>2.4</t>
         </is>
       </c>
       <c r="E87" t="inlineStr"/>
@@ -3379,7 +3379,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -3396,7 +3396,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -3413,7 +3413,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -3430,12 +3430,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
           <t>316</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>315</t>
         </is>
       </c>
       <c r="E89" t="inlineStr"/>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -3464,12 +3464,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
+          <t>323</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
           <t>322</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>321</t>
         </is>
       </c>
       <c r="E90" t="inlineStr"/>
@@ -3481,7 +3481,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -3515,7 +3515,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -3571,7 +3571,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>146</t>
         </is>
       </c>
       <c r="E93" t="inlineStr"/>
@@ -3583,7 +3583,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -3600,12 +3600,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="E94" t="inlineStr"/>
@@ -3617,7 +3617,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -3634,12 +3634,12 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
           <t>147</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>148</t>
         </is>
       </c>
       <c r="E95" t="inlineStr"/>
@@ -3651,7 +3651,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -3685,7 +3685,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -3702,12 +3702,12 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
+          <t>2.4</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
           <t>2.1</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>2.3</t>
         </is>
       </c>
       <c r="E97" t="inlineStr"/>
@@ -3719,7 +3719,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -3753,7 +3753,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -3770,12 +3770,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="E99" t="inlineStr"/>
@@ -3787,7 +3787,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -3804,12 +3804,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
           <t>0.3</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>0.2</t>
         </is>
       </c>
       <c r="E100" t="inlineStr"/>
@@ -3821,7 +3821,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -3872,12 +3872,12 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
           <t>0.3</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>0.2</t>
         </is>
       </c>
       <c r="E102" t="inlineStr"/>
@@ -3889,7 +3889,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -3906,12 +3906,12 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="E103" t="inlineStr"/>
@@ -3923,7 +3923,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -3940,7 +3940,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>316</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3957,7 +3957,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -3974,12 +3974,12 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
+          <t>-3.2</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
           <t>-4.9</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>-6.8</t>
         </is>
       </c>
       <c r="E105" t="inlineStr"/>
@@ -3991,7 +3991,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -4008,12 +4008,12 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>-0.6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E106" t="inlineStr"/>
@@ -4025,7 +4025,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -4042,12 +4042,12 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>-0.1</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>-1.9</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="E107" t="inlineStr"/>
@@ -4059,7 +4059,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -4076,12 +4076,12 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>-0.4</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="E108" t="inlineStr"/>
@@ -4093,7 +4093,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -4110,12 +4110,12 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>-0.1</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="E109" t="inlineStr"/>
@@ -4127,7 +4127,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -4144,12 +4144,12 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="E110" t="inlineStr"/>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Nov/24</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -4178,12 +4178,12 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
+          <t>2.8</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
           <t>2.6</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>2.7</t>
         </is>
       </c>
       <c r="E111" t="inlineStr"/>
@@ -4195,7 +4195,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Nov/24</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -4212,7 +4212,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -4229,7 +4229,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -4246,12 +4246,12 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
           <t>0.2</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>0.1</t>
         </is>
       </c>
       <c r="E113" t="inlineStr"/>
@@ -4263,7 +4263,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -4314,7 +4314,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>134</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -4331,7 +4331,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -4348,12 +4348,12 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
           <t>0.3</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>0.1</t>
         </is>
       </c>
       <c r="E116" t="inlineStr"/>
@@ -4365,7 +4365,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -4387,7 +4387,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="E117" t="inlineStr"/>
@@ -4399,7 +4399,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -4416,12 +4416,12 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="E118" t="inlineStr"/>
@@ -4433,7 +4433,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -4450,7 +4450,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -4467,7 +4467,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -4484,7 +4484,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -4501,7 +4501,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -4518,12 +4518,12 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>124</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>124</t>
         </is>
       </c>
       <c r="E121" t="inlineStr"/>
@@ -4535,7 +4535,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -4552,12 +4552,12 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>145</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>145</t>
         </is>
       </c>
       <c r="E122" t="inlineStr"/>
@@ -4569,7 +4569,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -4586,12 +4586,12 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
+          <t>2.4</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
           <t>2.3</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>2.4</t>
         </is>
       </c>
       <c r="E123" t="inlineStr"/>
@@ -4603,7 +4603,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -4620,7 +4620,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>338</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -4637,7 +4637,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -4654,12 +4654,12 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
           <t>4.08</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>4.16</t>
         </is>
       </c>
       <c r="E125" t="inlineStr"/>
@@ -4671,7 +4671,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -4688,7 +4688,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>268</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -4705,7 +4705,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -4722,12 +4722,12 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
           <t>3.2</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>3.17</t>
         </is>
       </c>
       <c r="E127" t="inlineStr"/>
@@ -4739,7 +4739,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -4756,12 +4756,12 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
           <t>2.9</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>3</t>
         </is>
       </c>
       <c r="E128" t="inlineStr"/>
@@ -4773,7 +4773,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -4807,7 +4807,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -4824,12 +4824,12 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
           <t>4.75</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>5</t>
         </is>
       </c>
       <c r="E130" t="inlineStr"/>
@@ -4841,7 +4841,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Nov/24</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -4892,12 +4892,12 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
+          <t>5567200</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
           <t>5588400</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>5670200</t>
         </is>
       </c>
       <c r="E132" t="inlineStr"/>
@@ -4909,7 +4909,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -4926,12 +4926,12 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>18151</t>
+          <t>18237</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>18094</t>
+          <t>18153</t>
         </is>
       </c>
       <c r="E133" t="inlineStr"/>
@@ -4943,7 +4943,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -4960,12 +4960,12 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>21221</t>
+          <t>21311</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>21141</t>
+          <t>21223</t>
         </is>
       </c>
       <c r="E134" t="inlineStr"/>
@@ -4977,7 +4977,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -4994,12 +4994,12 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>23547</t>
+          <t>23767</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>23585</t>
+          <t>23623</t>
         </is>
       </c>
       <c r="E135" t="inlineStr"/>
@@ -5011,7 +5011,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Nov/24</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -5028,12 +5028,12 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>6967108</t>
+          <t>6889332</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>6994299</t>
+          <t>6897485</t>
         </is>
       </c>
       <c r="E136" t="inlineStr"/>
@@ -5045,7 +5045,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Nov/24</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -5062,12 +5062,12 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
+          <t>36337</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
           <t>37805</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>37318</t>
         </is>
       </c>
       <c r="E137" t="inlineStr"/>
@@ -5079,7 +5079,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -5096,12 +5096,12 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>2787</t>
+          <t>2788</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>2780</t>
+          <t>2786</t>
         </is>
       </c>
       <c r="E138" t="inlineStr"/>
@@ -5113,7 +5113,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -5130,12 +5130,12 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>4.58</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>4.58</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="E139" t="inlineStr"/>
@@ -5147,7 +5147,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Nov/24</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -5181,7 +5181,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Nov/24</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -5198,12 +5198,12 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
           <t>4.92</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>4.71</t>
         </is>
       </c>
       <c r="E141" t="inlineStr"/>
@@ -5215,7 +5215,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -5232,12 +5232,12 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="E142" t="inlineStr"/>
@@ -5249,7 +5249,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Nov/24</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -5266,12 +5266,12 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
+          <t>92100</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
           <t>77000</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>19200</t>
         </is>
       </c>
       <c r="E143" t="inlineStr"/>
@@ -5283,7 +5283,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -5334,12 +5334,12 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>-84.36</t>
+          <t>-73.84</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>-70.79</t>
+          <t>-83.8</t>
         </is>
       </c>
       <c r="E145" t="inlineStr"/>
@@ -5351,7 +5351,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -5368,12 +5368,12 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>-267</t>
+          <t>-311</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>-241</t>
+          <t>-275</t>
         </is>
       </c>
       <c r="E146" t="inlineStr"/>
@@ -5385,7 +5385,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Jun/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -5436,12 +5436,12 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>266</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>270</t>
         </is>
       </c>
       <c r="E148" t="inlineStr"/>
@@ -5453,7 +5453,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -5470,12 +5470,12 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>340</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>354</t>
         </is>
       </c>
       <c r="E149" t="inlineStr"/>
@@ -5487,7 +5487,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -5572,12 +5572,12 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>398400</t>
+          <t>203600</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>75900</t>
+          <t>398900</t>
         </is>
       </c>
       <c r="E152" t="inlineStr"/>
@@ -5589,7 +5589,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -5606,12 +5606,12 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>77854</t>
+          <t>75589</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>73571</t>
+          <t>81456</t>
         </is>
       </c>
       <c r="E153" t="inlineStr"/>
@@ -5623,7 +5623,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Jun/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -5640,12 +5640,12 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
+          <t>152300</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
           <t>216100</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>108800</t>
         </is>
       </c>
       <c r="E154" t="inlineStr"/>
@@ -5657,7 +5657,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -5691,7 +5691,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Jun/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -5738,12 +5738,12 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>69.1</t>
+          <t>76.2</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>59.3</t>
+          <t>68.4</t>
         </is>
       </c>
       <c r="E157" t="inlineStr"/>
@@ -5755,7 +5755,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Aug/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -5772,12 +5772,12 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
+          <t>-307</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
           <t>-297</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>-277</t>
         </is>
       </c>
       <c r="E158" t="inlineStr"/>
@@ -5789,7 +5789,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Jun/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -5806,12 +5806,12 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>73.92</t>
+          <t>73.7</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>73.71</t>
+          <t>71.95</t>
         </is>
       </c>
       <c r="E159" t="inlineStr"/>
@@ -5823,7 +5823,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Jun/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -5840,12 +5840,12 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>13400</t>
+          <t>13631</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>13500</t>
+          <t>13513</t>
         </is>
       </c>
       <c r="E160" t="inlineStr"/>
@@ -5857,7 +5857,7 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Nov/24</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -5874,12 +5874,12 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>-108230</t>
+          <t>-99078</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>-94218</t>
+          <t>-108694</t>
         </is>
       </c>
       <c r="E161" t="inlineStr"/>
@@ -5891,7 +5891,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -5908,12 +5908,12 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
+          <t>8856</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
           <t>8391</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>9681</t>
         </is>
       </c>
       <c r="E162" t="inlineStr"/>
@@ -5925,7 +5925,7 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -5976,12 +5976,12 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>21480</t>
+          <t>21598</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>21065</t>
+          <t>21151</t>
         </is>
       </c>
       <c r="E164" t="inlineStr"/>
@@ -5993,7 +5993,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Aug/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -6010,12 +6010,12 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
+          <t>6163140</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
           <t>7527819</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>6899661</t>
         </is>
       </c>
       <c r="E165" t="inlineStr"/>
@@ -6023,7 +6023,7 @@
       <c r="G165" t="inlineStr"/>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Aug/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -6142,12 +6142,12 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>-257450</t>
+          <t>-367000</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>64263</t>
+          <t>-257000</t>
         </is>
       </c>
       <c r="E169" t="inlineStr"/>
@@ -6159,7 +6159,7 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -6210,12 +6210,12 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
+          <t>301754</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
           <t>326770</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>527620</t>
         </is>
       </c>
       <c r="E171" t="inlineStr"/>
@@ -6227,7 +6227,7 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -6244,12 +6244,12 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
+          <t>36087363</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
           <t>35951601</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>35464674</t>
         </is>
       </c>
       <c r="E172" t="inlineStr"/>
@@ -6261,7 +6261,7 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -6419,7 +6419,7 @@
       <c r="G177" t="inlineStr"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Nov/24</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -6504,12 +6504,12 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
+          <t>48.4</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
           <t>46.5</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>47.2</t>
         </is>
       </c>
       <c r="E180" t="inlineStr"/>
@@ -6521,7 +6521,7 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -6538,12 +6538,12 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>48.5</t>
+          <t>48.3</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>47.3</t>
+          <t>49.7</t>
         </is>
       </c>
       <c r="E181" t="inlineStr"/>
@@ -6555,7 +6555,7 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -6572,12 +6572,12 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
+          <t>52.1</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
           <t>56</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>54.9</t>
         </is>
       </c>
       <c r="E182" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -6606,12 +6606,12 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>58.5</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>55.2</t>
+          <t>56.1</t>
         </is>
       </c>
       <c r="E183" t="inlineStr"/>
@@ -6623,7 +6623,7 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -6640,12 +6640,12 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>54.1</t>
+          <t>56.6</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>54.9</t>
         </is>
       </c>
       <c r="E184" t="inlineStr"/>
@@ -6657,7 +6657,7 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -6674,12 +6674,12 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>-0.3</t>
+          <t>-0.9</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>-0.7</t>
+          <t>-0.5</t>
         </is>
       </c>
       <c r="E185" t="inlineStr"/>
@@ -6691,7 +6691,7 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -6708,12 +6708,12 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>-0.3</t>
+          <t>-0.1</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>-0.5</t>
+          <t>-0.4</t>
         </is>
       </c>
       <c r="E186" t="inlineStr"/>
@@ -6725,7 +6725,7 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -6742,12 +6742,12 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>-0.3</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>-0.6</t>
+          <t>-0.7</t>
         </is>
       </c>
       <c r="E187" t="inlineStr"/>
@@ -6759,7 +6759,7 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -6776,12 +6776,12 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>77.1</t>
+          <t>76.8</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>77.4</t>
+          <t>77</t>
         </is>
       </c>
       <c r="E188" t="inlineStr"/>
@@ -6793,7 +6793,7 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -6810,12 +6810,12 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>-0.8</t>
+          <t>-1.1</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>-0.8</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="E189" t="inlineStr"/>
@@ -6827,7 +6827,7 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -6844,12 +6844,12 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>-1.1</t>
+          <t>-0.3</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>-1.3</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="E190" t="inlineStr"/>
@@ -6861,7 +6861,7 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -6878,12 +6878,12 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>-0.1</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="E191" t="inlineStr"/>
@@ -6895,7 +6895,7 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -6917,7 +6917,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>-0.2</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="E192" t="inlineStr"/>
@@ -6929,7 +6929,7 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -6946,12 +6946,12 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>-0.5</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>-0.8</t>
+          <t>-0.2</t>
         </is>
       </c>
       <c r="E193" t="inlineStr"/>
@@ -6963,7 +6963,7 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -6980,12 +6980,12 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>584245</t>
+          <t>586674</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>587023</t>
+          <t>585571</t>
         </is>
       </c>
       <c r="E194" t="inlineStr"/>
@@ -6997,7 +6997,7 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -7019,7 +7019,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E195" t="inlineStr"/>
@@ -7031,7 +7031,7 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -7048,7 +7048,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>60.2</t>
+          <t>57.9</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -7082,12 +7082,12 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
           <t>-0.2</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>0.2</t>
         </is>
       </c>
       <c r="E197" t="inlineStr"/>
@@ -7099,7 +7099,7 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -7150,12 +7150,12 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
+          <t>3128</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
           <t>3142</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>3037</t>
         </is>
       </c>
       <c r="E199" t="inlineStr"/>
@@ -7167,7 +7167,7 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Jun/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -7184,12 +7184,12 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
           <t>93.7</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>91.5</t>
         </is>
       </c>
       <c r="E200" t="inlineStr"/>
@@ -7201,7 +7201,7 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -7218,12 +7218,12 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>-0.28</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.5</t>
         </is>
       </c>
       <c r="E201" t="inlineStr"/>
@@ -7235,7 +7235,7 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -7252,12 +7252,12 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
+          <t>-2.7</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
           <t>-3</t>
-        </is>
-      </c>
-      <c r="D202" t="inlineStr">
-        <is>
-          <t>-9</t>
         </is>
       </c>
       <c r="E202" t="inlineStr"/>
@@ -7269,7 +7269,7 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -7286,12 +7286,12 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
           <t>31.2</t>
-        </is>
-      </c>
-      <c r="D203" t="inlineStr">
-        <is>
-          <t>-11.9</t>
         </is>
       </c>
       <c r="E203" t="inlineStr"/>
@@ -7303,7 +7303,7 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Nov/24</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -7320,12 +7320,12 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>10.3</t>
+          <t>-16.4</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>-5.5</t>
         </is>
       </c>
       <c r="E204" t="inlineStr"/>
@@ -7337,7 +7337,7 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -7354,12 +7354,12 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
+          <t>-10</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
           <t>-14</t>
-        </is>
-      </c>
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>-21</t>
         </is>
       </c>
       <c r="E205" t="inlineStr"/>
@@ -7371,7 +7371,7 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -7388,12 +7388,12 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
+          <t>40.2</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
           <t>41.6</t>
-        </is>
-      </c>
-      <c r="D206" t="inlineStr">
-        <is>
-          <t>46.6</t>
         </is>
       </c>
       <c r="E206" t="inlineStr"/>
@@ -7405,7 +7405,7 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -7422,12 +7422,12 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>10.26</t>
+          <t>10.41</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>10.86</t>
+          <t>9.96</t>
         </is>
       </c>
       <c r="E207" t="inlineStr"/>
@@ -7439,7 +7439,7 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -7456,12 +7456,12 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>248</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>222</t>
         </is>
       </c>
       <c r="E208" t="inlineStr"/>
@@ -7473,7 +7473,7 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -7490,12 +7490,12 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>16.5</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>15.8</t>
+          <t>16.25</t>
         </is>
       </c>
       <c r="E209" t="inlineStr"/>
@@ -7507,7 +7507,7 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -7529,7 +7529,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>99.5</t>
         </is>
       </c>
       <c r="E210" t="inlineStr"/>
@@ -7541,7 +7541,7 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -7558,12 +7558,12 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="E211" t="inlineStr"/>
@@ -7575,7 +7575,7 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -7592,12 +7592,12 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="E212" t="inlineStr"/>
@@ -7609,7 +7609,7 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -7626,12 +7626,12 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>-0.21</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>-0.31</t>
         </is>
       </c>
       <c r="E213" t="inlineStr"/>
@@ -7643,7 +7643,7 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -7660,12 +7660,12 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="E214" t="inlineStr"/>
@@ -7677,7 +7677,7 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -7711,7 +7711,7 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -7745,7 +7745,7 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -7762,12 +7762,12 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
           <t>-5.1</t>
-        </is>
-      </c>
-      <c r="D217" t="inlineStr">
-        <is>
-          <t>2.9</t>
         </is>
       </c>
       <c r="E217" t="inlineStr"/>
@@ -7779,7 +7779,7 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -7796,12 +7796,12 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
+          <t>-11.9</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
           <t>-3.7</t>
-        </is>
-      </c>
-      <c r="D218" t="inlineStr">
-        <is>
-          <t>-5.2</t>
         </is>
       </c>
       <c r="E218" t="inlineStr"/>
@@ -7813,7 +7813,7 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -7830,12 +7830,12 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
+          <t>28.5</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
           <t>16.3</t>
-        </is>
-      </c>
-      <c r="D219" t="inlineStr">
-        <is>
-          <t>18.2</t>
         </is>
       </c>
       <c r="E219" t="inlineStr"/>
@@ -7847,7 +7847,7 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -7864,12 +7864,12 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
+          <t>-0.9</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
           <t>14.6</t>
-        </is>
-      </c>
-      <c r="D220" t="inlineStr">
-        <is>
-          <t>-3.2</t>
         </is>
       </c>
       <c r="E220" t="inlineStr"/>
@@ -7881,7 +7881,7 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -7898,12 +7898,12 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
+          <t>-5.9</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
           <t>1.5</t>
-        </is>
-      </c>
-      <c r="D221" t="inlineStr">
-        <is>
-          <t>-7</t>
         </is>
       </c>
       <c r="E221" t="inlineStr"/>
@@ -7915,7 +7915,7 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -7932,12 +7932,12 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
+          <t>9.8</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="D222" t="inlineStr">
-        <is>
-          <t>-2.6</t>
         </is>
       </c>
       <c r="E222" t="inlineStr"/>
@@ -7949,7 +7949,7 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -7966,12 +7966,12 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
+          <t>10.9</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
           <t>9.2</t>
-        </is>
-      </c>
-      <c r="D223" t="inlineStr">
-        <is>
-          <t>10.1</t>
         </is>
       </c>
       <c r="E223" t="inlineStr"/>
@@ -7983,7 +7983,7 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -8000,12 +8000,12 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
+          <t>41.8</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
           <t>42.3</t>
-        </is>
-      </c>
-      <c r="D224" t="inlineStr">
-        <is>
-          <t>44.1</t>
         </is>
       </c>
       <c r="E224" t="inlineStr"/>
@@ -8017,7 +8017,7 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -8034,12 +8034,12 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
+          <t>48.1</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
           <t>44.4</t>
-        </is>
-      </c>
-      <c r="D225" t="inlineStr">
-        <is>
-          <t>43.9</t>
         </is>
       </c>
       <c r="E225" t="inlineStr"/>
@@ -8051,7 +8051,7 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -8068,12 +8068,12 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
+          <t>48.1</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
           <t>42.6</t>
-        </is>
-      </c>
-      <c r="D226" t="inlineStr">
-        <is>
-          <t>43.9</t>
         </is>
       </c>
       <c r="E226" t="inlineStr"/>
@@ -8085,7 +8085,7 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -8102,12 +8102,12 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
+          <t>50.4</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
           <t>47.1</t>
-        </is>
-      </c>
-      <c r="D227" t="inlineStr">
-        <is>
-          <t>46.1</t>
         </is>
       </c>
       <c r="E227" t="inlineStr"/>
@@ -8119,7 +8119,7 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -8136,12 +8136,12 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
+          <t>50.3</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
           <t>54.8</t>
-        </is>
-      </c>
-      <c r="D228" t="inlineStr">
-        <is>
-          <t>48.3</t>
         </is>
       </c>
       <c r="E228" t="inlineStr"/>
@@ -8153,7 +8153,7 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -8170,12 +8170,12 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
+          <t>46.8</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
           <t>46.2</t>
-        </is>
-      </c>
-      <c r="D229" t="inlineStr">
-        <is>
-          <t>49.8</t>
         </is>
       </c>
       <c r="E229" t="inlineStr"/>
@@ -8187,7 +8187,7 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -8204,12 +8204,12 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
+          <t>48.7</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
           <t>52</t>
-        </is>
-      </c>
-      <c r="D230" t="inlineStr">
-        <is>
-          <t>52.2</t>
         </is>
       </c>
       <c r="E230" t="inlineStr"/>
@@ -8221,7 +8221,7 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -8238,12 +8238,12 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
+          <t>53.7</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
           <t>57.2</t>
-        </is>
-      </c>
-      <c r="D231" t="inlineStr">
-        <is>
-          <t>59.9</t>
         </is>
       </c>
       <c r="E231" t="inlineStr"/>
@@ -8255,7 +8255,7 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -8272,12 +8272,12 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
+          <t>51.5</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
           <t>53</t>
-        </is>
-      </c>
-      <c r="D232" t="inlineStr">
-        <is>
-          <t>48.1</t>
         </is>
       </c>
       <c r="E232" t="inlineStr"/>
@@ -8289,7 +8289,7 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -8306,12 +8306,12 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
+          <t>53.7</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
           <t>57.4</t>
-        </is>
-      </c>
-      <c r="D233" t="inlineStr">
-        <is>
-          <t>59.4</t>
         </is>
       </c>
       <c r="E233" t="inlineStr"/>
@@ -8323,7 +8323,7 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -8340,12 +8340,12 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
+          <t>58.2</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
           <t>58.1</t>
-        </is>
-      </c>
-      <c r="D234" t="inlineStr">
-        <is>
-          <t>59.4</t>
         </is>
       </c>
       <c r="E234" t="inlineStr"/>
@@ -8357,7 +8357,7 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -8379,7 +8379,7 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>-8</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="E235" t="inlineStr"/>
@@ -8391,7 +8391,7 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -8408,12 +8408,12 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E236" t="inlineStr"/>
@@ -8425,7 +8425,7 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -8442,12 +8442,12 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>-17</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>-14</t>
+          <t>-9</t>
         </is>
       </c>
       <c r="E237" t="inlineStr"/>
@@ -8459,7 +8459,7 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -8476,12 +8476,12 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E238" t="inlineStr"/>
@@ -8493,7 +8493,7 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -8510,12 +8510,12 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>-13</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>-12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E239" t="inlineStr"/>
@@ -8527,7 +8527,7 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -8544,12 +8544,12 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>-0.5</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>-0.3</t>
+          <t>-0.7</t>
         </is>
       </c>
       <c r="E240" t="inlineStr"/>
@@ -8561,7 +8561,7 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -8578,12 +8578,12 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>-0.2</t>
         </is>
       </c>
       <c r="E241" t="inlineStr"/>
@@ -8595,7 +8595,7 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -8612,12 +8612,12 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>-5.8</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>-5.7</t>
+          <t>0.9</t>
         </is>
       </c>
       <c r="E242" t="inlineStr"/>
@@ -8629,7 +8629,7 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -8646,12 +8646,12 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>-10.2</t>
+          <t>6.1</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>9.4</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E243" t="inlineStr"/>
@@ -8663,7 +8663,7 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -8680,12 +8680,12 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>21.1</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>23.2</t>
+          <t>27.8</t>
         </is>
       </c>
       <c r="E244" t="inlineStr"/>
@@ -8697,7 +8697,7 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -8714,12 +8714,12 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>-2.7</t>
+          <t>9.4</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>17.9</t>
+          <t>32.5</t>
         </is>
       </c>
       <c r="E245" t="inlineStr"/>
@@ -8731,7 +8731,7 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -8748,12 +8748,12 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>36.7</t>
+          <t>30.7</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>15.8</t>
+          <t>56.6</t>
         </is>
       </c>
       <c r="E246" t="inlineStr"/>
@@ -8765,7 +8765,7 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -8782,12 +8782,12 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>23.5</t>
+          <t>18.8</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>24.9</t>
         </is>
       </c>
       <c r="E247" t="inlineStr"/>
@@ -8799,7 +8799,7 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -8816,12 +8816,12 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>-2.2</t>
+          <t>6.6</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>10.7</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="E248" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -8850,12 +8850,12 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>14.2</t>
+          <t>-4.3</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>-1.5</t>
+          <t>8.9</t>
         </is>
       </c>
       <c r="E249" t="inlineStr"/>
@@ -8867,7 +8867,7 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -8884,12 +8884,12 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>29.7</t>
+          <t>31.2</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>26.6</t>
         </is>
       </c>
       <c r="E250" t="inlineStr"/>
@@ -8901,7 +8901,7 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -8918,12 +8918,12 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="E251" t="inlineStr"/>
@@ -8935,7 +8935,7 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -8952,12 +8952,12 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>-8</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>-18</t>
+          <t>-12</t>
         </is>
       </c>
       <c r="E252" t="inlineStr"/>
@@ -8969,7 +8969,7 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -8986,12 +8986,12 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E253" t="inlineStr"/>
@@ -9003,7 +9003,7 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -9037,7 +9037,7 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>21/Nov/24 14:23:36</t>
+          <t>26/Dec/24 10:02:23</t>
         </is>
       </c>
     </row>
@@ -9071,7 +9071,7 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>21/Nov/24 14:23:36</t>
+          <t>26/Dec/24 10:02:23</t>
         </is>
       </c>
     </row>
@@ -9105,7 +9105,7 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>21/Nov/24 14:23:36</t>
+          <t>26/Dec/24 10:02:23</t>
         </is>
       </c>
     </row>
@@ -9122,12 +9122,12 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>-18</t>
+          <t>-4</t>
         </is>
       </c>
       <c r="E257" t="inlineStr"/>
@@ -9139,7 +9139,7 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -9156,12 +9156,12 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
+          <t>68.8</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
           <t>65.8</t>
-        </is>
-      </c>
-      <c r="D258" t="inlineStr">
-        <is>
-          <t>71.3</t>
         </is>
       </c>
       <c r="E258" t="inlineStr"/>
@@ -9173,7 +9173,7 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -9190,12 +9190,12 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
+          <t>58.4</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
           <t>58.9</t>
-        </is>
-      </c>
-      <c r="D259" t="inlineStr">
-        <is>
-          <t>58.6</t>
         </is>
       </c>
       <c r="E259" t="inlineStr"/>
@@ -9207,7 +9207,7 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -9224,12 +9224,12 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
+          <t>63.6</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
           <t>65.7</t>
-        </is>
-      </c>
-      <c r="D260" t="inlineStr">
-        <is>
-          <t>65.4</t>
         </is>
       </c>
       <c r="E260" t="inlineStr"/>
@@ -9241,7 +9241,7 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -9258,12 +9258,12 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
+          <t>63.8</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
           <t>64.1</t>
-        </is>
-      </c>
-      <c r="D261" t="inlineStr">
-        <is>
-          <t>58.4</t>
         </is>
       </c>
       <c r="E261" t="inlineStr"/>
@@ -9275,7 +9275,7 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -9292,12 +9292,12 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
+          <t>68.8</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
           <t>65.8</t>
-        </is>
-      </c>
-      <c r="D262" t="inlineStr">
-        <is>
-          <t>66.9</t>
         </is>
       </c>
       <c r="E262" t="inlineStr"/>
@@ -9309,7 +9309,7 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -9326,12 +9326,12 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>-1.5</t>
+          <t>-1.3</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>-2.5</t>
+          <t>-0.6</t>
         </is>
       </c>
       <c r="E263" t="inlineStr"/>
@@ -9343,7 +9343,7 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -9360,12 +9360,12 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
+          <t>6600</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
           <t>6700</t>
-        </is>
-      </c>
-      <c r="D264" t="inlineStr">
-        <is>
-          <t>7000</t>
         </is>
       </c>
       <c r="E264" t="inlineStr"/>
@@ -9377,7 +9377,7 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -9394,12 +9394,12 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>74</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>70.5</t>
+          <t>71.8</t>
         </is>
       </c>
       <c r="E265" t="inlineStr"/>
@@ -9411,7 +9411,7 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>Nov/24</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -9428,12 +9428,12 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="E266" t="inlineStr"/>
@@ -9445,7 +9445,7 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -9462,12 +9462,12 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="E267" t="inlineStr"/>
@@ -9479,7 +9479,7 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -9496,12 +9496,12 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="E268" t="inlineStr"/>
@@ -9513,7 +9513,7 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -9530,7 +9530,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>16112</t>
+          <t>16113</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -9598,12 +9598,12 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="E271" t="inlineStr"/>
@@ -9615,7 +9615,7 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -9637,7 +9637,7 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="E272" t="inlineStr"/>
@@ -9649,7 +9649,7 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -9666,12 +9666,12 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="E273" t="inlineStr"/>
@@ -9683,7 +9683,7 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -9700,12 +9700,12 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>19.24</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>8.93</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="E274" t="inlineStr"/>
@@ -9717,7 +9717,7 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -9734,12 +9734,12 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>12556</t>
+          <t>12548</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>12485</t>
+          <t>12520</t>
         </is>
       </c>
       <c r="E275" t="inlineStr"/>
@@ -9751,7 +9751,7 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -9768,7 +9768,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7.75</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -9785,7 +9785,7 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -9802,12 +9802,12 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
           <t>53.2</t>
-        </is>
-      </c>
-      <c r="D277" t="inlineStr">
-        <is>
-          <t>46.9</t>
         </is>
       </c>
       <c r="E277" t="inlineStr"/>
@@ -9819,7 +9819,7 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>Nov/24</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -9836,7 +9836,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>5.1</t>
+          <t>5.9</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
@@ -9853,7 +9853,7 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>Nov/24</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -10074,12 +10074,12 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>78.5</t>
+          <t>73.3</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>74.1</t>
+          <t>76.9</t>
         </is>
       </c>
       <c r="E285" t="inlineStr"/>
@@ -10091,7 +10091,7 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>Nov/24</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -10108,12 +10108,12 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>64.4</t>
+          <t>75.1</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>64.9</t>
+          <t>63.9</t>
         </is>
       </c>
       <c r="E286" t="inlineStr"/>
@@ -10125,7 +10125,7 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>Nov/24</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -10142,12 +10142,12 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="E287" t="inlineStr"/>
@@ -10159,7 +10159,7 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -10176,12 +10176,12 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
+          <t>1.3</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
           <t>-0.1</t>
-        </is>
-      </c>
-      <c r="D288" t="inlineStr">
-        <is>
-          <t>-0.5</t>
         </is>
       </c>
       <c r="E288" t="inlineStr"/>
@@ -10193,7 +10193,7 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -10210,12 +10210,12 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
           <t>-3.2</t>
-        </is>
-      </c>
-      <c r="D289" t="inlineStr">
-        <is>
-          <t>-5.3</t>
         </is>
       </c>
       <c r="E289" t="inlineStr"/>
@@ -10227,7 +10227,7 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -10244,12 +10244,12 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>2262</t>
+          <t>2305</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>2123</t>
+          <t>2184</t>
         </is>
       </c>
       <c r="E290" t="inlineStr"/>
@@ -10261,7 +10261,7 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>Aug/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -10278,12 +10278,12 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
           <t>0.83</t>
-        </is>
-      </c>
-      <c r="D291" t="inlineStr">
-        <is>
-          <t>0.85</t>
         </is>
       </c>
       <c r="E291" t="inlineStr"/>
@@ -10291,7 +10291,7 @@
       <c r="G291" t="inlineStr"/>
       <c r="H291" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -10308,12 +10308,12 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>72.1</t>
+          <t>70.7</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>72.9</t>
+          <t>71.1</t>
         </is>
       </c>
       <c r="E292" t="inlineStr"/>
@@ -10325,7 +10325,7 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>Mar/24</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -10342,12 +10342,12 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>1416</t>
+          <t>1493</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>1425</t>
+          <t>1419</t>
         </is>
       </c>
       <c r="E293" t="inlineStr"/>
@@ -10359,7 +10359,7 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -10376,12 +10376,12 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>1311</t>
+          <t>1289</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>1353</t>
+          <t>1312</t>
         </is>
       </c>
       <c r="E294" t="inlineStr"/>
@@ -10393,7 +10393,7 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -10410,12 +10410,12 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>738</t>
+          <t>664</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>709</t>
+          <t>627</t>
         </is>
       </c>
       <c r="E295" t="inlineStr"/>
@@ -10427,7 +10427,7 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -10444,12 +10444,12 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
+          <t>5.4</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
           <t>2.6</t>
-        </is>
-      </c>
-      <c r="D296" t="inlineStr">
-        <is>
-          <t>-3</t>
         </is>
       </c>
       <c r="E296" t="inlineStr"/>
@@ -10461,7 +10461,7 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -10478,12 +10478,12 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>3840</t>
+          <t>4150</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>3880</t>
+          <t>3960</t>
         </is>
       </c>
       <c r="E297" t="inlineStr"/>
@@ -10495,7 +10495,7 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -10512,7 +10512,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
@@ -10529,7 +10529,7 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -10546,12 +10546,12 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
+          <t>430</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
           <t>427</t>
-        </is>
-      </c>
-      <c r="D299" t="inlineStr">
-        <is>
-          <t>426</t>
         </is>
       </c>
       <c r="E299" t="inlineStr"/>
@@ -10563,7 +10563,7 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Aug/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -10585,7 +10585,7 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>46</t>
         </is>
       </c>
       <c r="E300" t="inlineStr"/>
@@ -10597,7 +10597,7 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Nov/24</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -10614,12 +10614,12 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>6.9</t>
+          <t>6.75</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>6.86</t>
+          <t>6.67</t>
         </is>
       </c>
       <c r="E301" t="inlineStr"/>
@@ -10631,7 +10631,7 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Nov/24</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -10648,12 +10648,12 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>-0.7</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="E302" t="inlineStr"/>
@@ -10665,7 +10665,7 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Nov/24</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -10682,12 +10682,12 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>5.99</t>
+          <t>5.92</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5.84</t>
         </is>
       </c>
       <c r="E303" t="inlineStr"/>
@@ -10699,7 +10699,7 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Nov/24</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -10716,12 +10716,12 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>6.78</t>
+          <t>6.72</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>6.79</t>
+          <t>6.6</t>
         </is>
       </c>
       <c r="E304" t="inlineStr"/>
@@ -10733,7 +10733,7 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Nov/24</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -10750,12 +10750,12 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>501000</t>
+          <t>484800</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>486500</t>
+          <t>525400</t>
         </is>
       </c>
       <c r="E305" t="inlineStr"/>
@@ -10767,7 +10767,7 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -10789,7 +10789,7 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>396</t>
+          <t>410</t>
         </is>
       </c>
       <c r="E306" t="inlineStr"/>
@@ -10801,7 +10801,7 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -10818,12 +10818,12 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>-0.6</t>
+          <t>5.2</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>-3.1</t>
+          <t>-0.4</t>
         </is>
       </c>
       <c r="E307" t="inlineStr"/>
@@ -10835,7 +10835,7 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -10857,7 +10857,7 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-0.3</t>
         </is>
       </c>
       <c r="E308" t="inlineStr"/>
@@ -10869,7 +10869,7 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>Aug/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -10886,12 +10886,12 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
           <t>5.2</t>
-        </is>
-      </c>
-      <c r="D309" t="inlineStr">
-        <is>
-          <t>5.9</t>
         </is>
       </c>
       <c r="E309" t="inlineStr"/>
@@ -10903,7 +10903,7 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>Aug/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -10920,12 +10920,12 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="E310" t="inlineStr"/>
@@ -10937,7 +10937,7 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -10954,12 +10954,12 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="E311" t="inlineStr"/>
@@ -10971,7 +10971,7 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Aug/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -10988,12 +10988,12 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="E312" t="inlineStr"/>
@@ -11005,7 +11005,7 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Aug/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -11022,12 +11022,12 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>-3.1</t>
+          <t>-1.8</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>-1.9</t>
+          <t>-3.2</t>
         </is>
       </c>
       <c r="E313" t="inlineStr"/>
@@ -11039,7 +11039,7 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -11056,12 +11056,12 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>264</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>348</t>
         </is>
       </c>
       <c r="E314" t="inlineStr"/>
@@ -11073,7 +11073,7 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -11090,12 +11090,12 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>970</t>
+          <t>1011</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>1042</t>
+          <t>950</t>
         </is>
       </c>
       <c r="E315" t="inlineStr"/>
@@ -11107,7 +11107,7 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -11124,12 +11124,12 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>224</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>226</t>
         </is>
       </c>
       <c r="E316" t="inlineStr"/>
@@ -11141,7 +11141,7 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>Nov/24</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -11158,12 +11158,12 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>515</t>
+          <t>618</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>506</t>
+          <t>634</t>
         </is>
       </c>
       <c r="E317" t="inlineStr"/>
@@ -11175,7 +11175,7 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>Nov/24</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -11192,12 +11192,12 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>157</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>155</t>
         </is>
       </c>
       <c r="E318" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>Nov/24</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -11260,12 +11260,12 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
+          <t>323</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
           <t>322</t>
-        </is>
-      </c>
-      <c r="D320" t="inlineStr">
-        <is>
-          <t>321</t>
         </is>
       </c>
       <c r="E320" t="inlineStr"/>
@@ -11277,7 +11277,7 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Aug/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -11294,12 +11294,12 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>5.9</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>-2.3</t>
+          <t>-14.8</t>
         </is>
       </c>
       <c r="E321" t="inlineStr"/>
@@ -11311,7 +11311,7 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -11328,12 +11328,12 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>7.4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>7.5</t>
         </is>
       </c>
       <c r="E322" t="inlineStr"/>
@@ -11345,7 +11345,7 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -11362,7 +11362,7 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>1390</t>
+          <t>1330</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
@@ -11379,7 +11379,7 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -11396,12 +11396,12 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
           <t>335</t>
-        </is>
-      </c>
-      <c r="D324" t="inlineStr">
-        <is>
-          <t>336</t>
         </is>
       </c>
       <c r="E324" t="inlineStr"/>
@@ -11413,7 +11413,7 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Aug/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -11464,12 +11464,12 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>404500</t>
+          <t>406100</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>414200</t>
+          <t>406800</t>
         </is>
       </c>
       <c r="E326" t="inlineStr"/>
@@ -11481,7 +11481,7 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -11503,7 +11503,7 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>134</t>
         </is>
       </c>
       <c r="E327" t="inlineStr"/>
@@ -11511,7 +11511,7 @@
       <c r="G327" t="inlineStr"/>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Jun/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -11528,12 +11528,12 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>4.67</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>5.27</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="E328" t="inlineStr"/>
@@ -11545,7 +11545,7 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>Jun/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -11562,12 +11562,12 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>-0.93</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>-1.43</t>
         </is>
       </c>
       <c r="E329" t="inlineStr"/>
@@ -11575,7 +11575,7 @@
       <c r="G329" t="inlineStr"/>
       <c r="H329" t="inlineStr">
         <is>
-          <t>21/Nov/24 14:23:36</t>
+          <t>26/Dec/24 10:02:23</t>
         </is>
       </c>
     </row>
@@ -11592,12 +11592,12 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>2054</t>
+          <t>2348</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>-4407</t>
+          <t>5086</t>
         </is>
       </c>
       <c r="E330" t="inlineStr"/>
@@ -11609,7 +11609,7 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>21/Nov/24 14:23:36</t>
+          <t>26/Dec/24 10:02:23</t>
         </is>
       </c>
     </row>
@@ -11626,12 +11626,12 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>-125</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>-190</t>
         </is>
       </c>
       <c r="E331" t="inlineStr"/>
@@ -11643,7 +11643,7 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>21/Nov/24 14:23:36</t>
+          <t>26/Dec/24 10:02:23</t>
         </is>
       </c>
     </row>
@@ -11660,12 +11660,12 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>-4.7</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>-0.78</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="E332" t="inlineStr"/>
@@ -11673,7 +11673,7 @@
       <c r="G332" t="inlineStr"/>
       <c r="H332" t="inlineStr">
         <is>
-          <t>21/Nov/24 14:23:36</t>
+          <t>26/Dec/24 10:02:23</t>
         </is>
       </c>
     </row>
@@ -11690,12 +11690,12 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>483</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>479</t>
+          <t>482</t>
         </is>
       </c>
       <c r="E333" t="inlineStr"/>
@@ -11703,7 +11703,7 @@
       <c r="G333" t="inlineStr"/>
       <c r="H333" t="inlineStr">
         <is>
-          <t>Nov/24</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -11720,12 +11720,12 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>387790</t>
+          <t>392531</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>387223</t>
+          <t>391807</t>
         </is>
       </c>
       <c r="E334" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>21/Nov/24 14:23:36</t>
+          <t>26/Dec/24 10:02:23</t>
         </is>
       </c>
     </row>
@@ -11754,12 +11754,12 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>589</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>589</t>
         </is>
       </c>
       <c r="E335" t="inlineStr"/>
@@ -11767,7 +11767,7 @@
       <c r="G335" t="inlineStr"/>
       <c r="H335" t="inlineStr">
         <is>
-          <t>Nov/24</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -11844,12 +11844,12 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>-0.29</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>-1.86</t>
+          <t>-1.52</t>
         </is>
       </c>
       <c r="E338" t="inlineStr"/>
@@ -11857,7 +11857,7 @@
       <c r="G338" t="inlineStr"/>
       <c r="H338" t="inlineStr">
         <is>
-          <t>Nov/24</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -11874,12 +11874,12 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>-0.69</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="E339" t="inlineStr"/>
@@ -11887,7 +11887,7 @@
       <c r="G339" t="inlineStr"/>
       <c r="H339" t="inlineStr">
         <is>
-          <t>21/Nov/24 14:23:36</t>
+          <t>26/Dec/24 10:02:23</t>
         </is>
       </c>
     </row>
@@ -11904,12 +11904,12 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>-2.48</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="E340" t="inlineStr"/>
@@ -11917,7 +11917,7 @@
       <c r="G340" t="inlineStr"/>
       <c r="H340" t="inlineStr">
         <is>
-          <t>21/Nov/24 14:23:36</t>
+          <t>26/Dec/24 10:02:23</t>
         </is>
       </c>
     </row>
@@ -11994,12 +11994,12 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>-1131</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>-321</t>
+          <t>-170</t>
         </is>
       </c>
       <c r="E343" t="inlineStr"/>
@@ -12011,7 +12011,7 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>Nov/24</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -12028,12 +12028,12 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>-140</t>
+          <t>108</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>-688</t>
+          <t>-1298</t>
         </is>
       </c>
       <c r="E344" t="inlineStr"/>
@@ -12045,7 +12045,7 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>21/Nov/24 14:23:36</t>
+          <t>26/Dec/24 10:02:23</t>
         </is>
       </c>
     </row>
@@ -12062,12 +12062,12 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>-132</t>
+          <t>-135</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>-127</t>
+          <t>-86</t>
         </is>
       </c>
       <c r="E345" t="inlineStr"/>
@@ -12079,7 +12079,7 @@
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>Nov/24</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -12096,12 +12096,12 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>-114</t>
+          <t>-3180</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>-1394</t>
+          <t>3235</t>
         </is>
       </c>
       <c r="E346" t="inlineStr"/>
@@ -12113,7 +12113,7 @@
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>21/Nov/24 14:23:36</t>
+          <t>26/Dec/24 10:02:23</t>
         </is>
       </c>
     </row>
@@ -12130,12 +12130,12 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>-980</t>
+          <t>-173</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>549</t>
         </is>
       </c>
       <c r="E347" t="inlineStr"/>
@@ -12147,7 +12147,7 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>Nov/24</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -12164,12 +12164,12 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>-304</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>-1060</t>
+          <t>504</t>
         </is>
       </c>
       <c r="E348" t="inlineStr"/>
@@ -12181,7 +12181,7 @@
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>21/Nov/24 14:23:36</t>
+          <t>26/Dec/24 10:02:23</t>
         </is>
       </c>
     </row>
@@ -12198,12 +12198,12 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>-281</t>
+          <t>-48</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>-251</t>
         </is>
       </c>
       <c r="E349" t="inlineStr"/>
@@ -12215,7 +12215,7 @@
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>Nov/24</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -12232,12 +12232,12 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
           <t>2.77</t>
-        </is>
-      </c>
-      <c r="D350" t="inlineStr">
-        <is>
-          <t>2.78</t>
         </is>
       </c>
       <c r="E350" t="inlineStr"/>
@@ -12253,7 +12253,7 @@
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>Dec/21</t>
+          <t>Dec/22</t>
         </is>
       </c>
     </row>
@@ -12270,12 +12270,12 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>18.55</t>
+          <t>18.36</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>19.11</t>
+          <t>18.46</t>
         </is>
       </c>
       <c r="E351" t="inlineStr"/>
@@ -12287,7 +12287,7 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>Dec/19</t>
+          <t>Dec/22</t>
         </is>
       </c>
     </row>
@@ -12342,12 +12342,12 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>11.98</t>
+          <t>12.19</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>11.98</t>
+          <t>12.05</t>
         </is>
       </c>
       <c r="E353" t="inlineStr"/>
@@ -12363,7 +12363,7 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>Dec/21</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
